--- a/documents/paragraph_analysis.xlsx
+++ b/documents/paragraph_analysis.xlsx
@@ -185,550 +185,550 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>3972090</c:v>
+                  <c:v>8738598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4123935</c:v>
+                  <c:v>9072657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3872835</c:v>
+                  <c:v>8520237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3749990</c:v>
+                  <c:v>8249978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3750005</c:v>
+                  <c:v>8250011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3750010</c:v>
+                  <c:v>8250022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3749985</c:v>
+                  <c:v>8249967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3749995</c:v>
+                  <c:v>8249989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3626745</c:v>
+                  <c:v>7978839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3708965</c:v>
+                  <c:v>8159723</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3749995</c:v>
+                  <c:v>8249989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3749990</c:v>
+                  <c:v>8249978</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3750005</c:v>
+                  <c:v>8250011</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3750010</c:v>
+                  <c:v>8250022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3749985</c:v>
+                  <c:v>8249967</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3749995</c:v>
+                  <c:v>8249989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3749770</c:v>
+                  <c:v>8249494</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3283175</c:v>
+                  <c:v>7222985</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3256610</c:v>
+                  <c:v>7164542</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3258380</c:v>
+                  <c:v>7168436</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3259620</c:v>
+                  <c:v>7171164</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3256865</c:v>
+                  <c:v>7165103</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3259085</c:v>
+                  <c:v>7169987</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3258580</c:v>
+                  <c:v>7168876</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3259395</c:v>
+                  <c:v>7170669</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3259155</c:v>
+                  <c:v>7170141</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3260260</c:v>
+                  <c:v>7172572</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3259020</c:v>
+                  <c:v>7169844</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3257670</c:v>
+                  <c:v>7166874</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3259130</c:v>
+                  <c:v>7170086</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3259895</c:v>
+                  <c:v>7171769</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3261265</c:v>
+                  <c:v>7174783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3260395</c:v>
+                  <c:v>7172869</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3255740</c:v>
+                  <c:v>7162628</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3260100</c:v>
+                  <c:v>7172220</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3259910</c:v>
+                  <c:v>7171802</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3259965</c:v>
+                  <c:v>7171923</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3261535</c:v>
+                  <c:v>7175377</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3256455</c:v>
+                  <c:v>7164201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3261360</c:v>
+                  <c:v>7174992</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3258665</c:v>
+                  <c:v>7169063</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3259330</c:v>
+                  <c:v>7170526</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3261515</c:v>
+                  <c:v>7175333</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3259795</c:v>
+                  <c:v>7171549</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3258645</c:v>
+                  <c:v>7169019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3258715</c:v>
+                  <c:v>7169173</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3262445</c:v>
+                  <c:v>7177379</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3260970</c:v>
+                  <c:v>7174134</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3256375</c:v>
+                  <c:v>7164025</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3260960</c:v>
+                  <c:v>7174112</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3262480</c:v>
+                  <c:v>7177456</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3259800</c:v>
+                  <c:v>7171560</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3261350</c:v>
+                  <c:v>7174970</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3258555</c:v>
+                  <c:v>7168821</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3258415</c:v>
+                  <c:v>7168513</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3257505</c:v>
+                  <c:v>7166511</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3259625</c:v>
+                  <c:v>7171175</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3259775</c:v>
+                  <c:v>7171505</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3262380</c:v>
+                  <c:v>7177236</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3260810</c:v>
+                  <c:v>7173782</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3260030</c:v>
+                  <c:v>7172066</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3261965</c:v>
+                  <c:v>7176323</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3258910</c:v>
+                  <c:v>7169602</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3261375</c:v>
+                  <c:v>7175025</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3262310</c:v>
+                  <c:v>7177082</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3256135</c:v>
+                  <c:v>7163497</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3261945</c:v>
+                  <c:v>7176279</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3257990</c:v>
+                  <c:v>7167578</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3260715</c:v>
+                  <c:v>7173573</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3258255</c:v>
+                  <c:v>7168161</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3257490</c:v>
+                  <c:v>7166478</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3261405</c:v>
+                  <c:v>7175091</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3260840</c:v>
+                  <c:v>7173848</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3261820</c:v>
+                  <c:v>7176004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3256815</c:v>
+                  <c:v>7164993</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3260920</c:v>
+                  <c:v>7174024</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3259655</c:v>
+                  <c:v>7171241</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3260495</c:v>
+                  <c:v>7173089</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3261240</c:v>
+                  <c:v>7174728</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3254350</c:v>
+                  <c:v>7159570</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3261685</c:v>
+                  <c:v>7175707</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3257550</c:v>
+                  <c:v>7166610</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3254820</c:v>
+                  <c:v>7160604</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3261650</c:v>
+                  <c:v>7175630</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3259005</c:v>
+                  <c:v>7169811</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3261920</c:v>
+                  <c:v>7176224</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3259980</c:v>
+                  <c:v>7171956</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3259085</c:v>
+                  <c:v>7169987</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3261675</c:v>
+                  <c:v>7175685</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3258420</c:v>
+                  <c:v>7168524</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3252830</c:v>
+                  <c:v>7156226</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3262140</c:v>
+                  <c:v>7176708</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3256675</c:v>
+                  <c:v>7164685</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3261730</c:v>
+                  <c:v>7175806</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3254285</c:v>
+                  <c:v>7159427</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3260835</c:v>
+                  <c:v>7173837</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3260160</c:v>
+                  <c:v>7172352</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3262045</c:v>
+                  <c:v>7176499</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3258485</c:v>
+                  <c:v>7168667</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3261620</c:v>
+                  <c:v>7175564</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3260410</c:v>
+                  <c:v>7172902</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3258670</c:v>
+                  <c:v>7169074</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3260710</c:v>
+                  <c:v>7173562</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3255000</c:v>
+                  <c:v>7161000</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3261625</c:v>
+                  <c:v>7175575</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3256640</c:v>
+                  <c:v>7164608</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3261625</c:v>
+                  <c:v>7175575</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3259395</c:v>
+                  <c:v>7170669</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3259040</c:v>
+                  <c:v>7169888</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3261000</c:v>
+                  <c:v>7174200</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3259150</c:v>
+                  <c:v>7170130</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3261385</c:v>
+                  <c:v>7175047</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3256660</c:v>
+                  <c:v>7164652</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3261655</c:v>
+                  <c:v>7175641</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3259845</c:v>
+                  <c:v>7171659</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3256210</c:v>
+                  <c:v>7163662</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3261780</c:v>
+                  <c:v>7175916</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3258545</c:v>
+                  <c:v>7168799</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3261440</c:v>
+                  <c:v>7175168</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3256895</c:v>
+                  <c:v>7165169</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3259485</c:v>
+                  <c:v>7170867</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3260860</c:v>
+                  <c:v>7173892</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3253695</c:v>
+                  <c:v>7158129</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3261565</c:v>
+                  <c:v>7175443</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3261510</c:v>
+                  <c:v>7175322</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3259610</c:v>
+                  <c:v>7171142</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3261630</c:v>
+                  <c:v>7175586</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3253405</c:v>
+                  <c:v>7157491</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3261530</c:v>
+                  <c:v>7175366</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3261180</c:v>
+                  <c:v>7174596</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3260520</c:v>
+                  <c:v>7173144</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3260530</c:v>
+                  <c:v>7173166</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3257085</c:v>
+                  <c:v>7165587</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3261160</c:v>
+                  <c:v>7174552</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3261490</c:v>
+                  <c:v>7175278</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3258260</c:v>
+                  <c:v>7168172</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3261405</c:v>
+                  <c:v>7175091</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3256830</c:v>
+                  <c:v>7165026</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3261025</c:v>
+                  <c:v>7174255</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3261135</c:v>
+                  <c:v>7174497</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3254905</c:v>
+                  <c:v>7160791</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3261260</c:v>
+                  <c:v>7174772</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3261035</c:v>
+                  <c:v>7174277</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3258690</c:v>
+                  <c:v>7169118</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3260685</c:v>
+                  <c:v>7173507</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3259865</c:v>
+                  <c:v>7171703</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3261555</c:v>
+                  <c:v>7175421</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3261910</c:v>
+                  <c:v>7176202</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3258270</c:v>
+                  <c:v>7168194</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3260875</c:v>
+                  <c:v>7173925</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3257360</c:v>
+                  <c:v>7166192</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3256010</c:v>
+                  <c:v>7163222</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3261025</c:v>
+                  <c:v>7174255</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3259960</c:v>
+                  <c:v>7171912</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3255885</c:v>
+                  <c:v>7162947</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3261555</c:v>
+                  <c:v>7175421</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3258095</c:v>
+                  <c:v>7167809</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3261150</c:v>
+                  <c:v>7174530</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3260875</c:v>
+                  <c:v>7173925</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3255855</c:v>
+                  <c:v>7162881</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3261045</c:v>
+                  <c:v>7174299</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3260795</c:v>
+                  <c:v>7173749</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3258905</c:v>
+                  <c:v>7169591</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3261760</c:v>
+                  <c:v>7175872</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3260875</c:v>
+                  <c:v>7173925</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3257115</c:v>
+                  <c:v>7165653</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3261445</c:v>
+                  <c:v>7175179</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3261260</c:v>
+                  <c:v>7174772</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3253140</c:v>
+                  <c:v>7156908</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3260930</c:v>
+                  <c:v>7174046</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3260700</c:v>
+                  <c:v>7173540</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3260530</c:v>
+                  <c:v>7173166</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3260850</c:v>
+                  <c:v>7173870</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3261030</c:v>
+                  <c:v>7174266</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3255205</c:v>
+                  <c:v>7161451</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3255660</c:v>
+                  <c:v>7162452</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3261270</c:v>
+                  <c:v>7174794</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3260745</c:v>
+                  <c:v>7173639</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3635615</c:v>
+                  <c:v>7998353</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3750020</c:v>
+                  <c:v>8250044</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3749995</c:v>
+                  <c:v>8249989</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3749990</c:v>
+                  <c:v>8249978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,550 +759,550 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>2083488</c:v>
+                  <c:v>2178192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51480</c:v>
+                  <c:v>53820</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9282504</c:v>
+                  <c:v>9704436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14142744</c:v>
+                  <c:v>14785596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14143008</c:v>
+                  <c:v>14785872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14142744</c:v>
+                  <c:v>14785596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12321804</c:v>
+                  <c:v>12881886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13304676</c:v>
+                  <c:v>13909434</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14142744</c:v>
+                  <c:v>14785596</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14143008</c:v>
+                  <c:v>14785872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14142744</c:v>
+                  <c:v>14785596</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14141028</c:v>
+                  <c:v>14783802</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6050220</c:v>
+                  <c:v>6325230</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6094572</c:v>
+                  <c:v>6371598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6080184</c:v>
+                  <c:v>6356556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6075696</c:v>
+                  <c:v>6351864</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6084540</c:v>
+                  <c:v>6361110</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6067908</c:v>
+                  <c:v>6343722</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6066324</c:v>
+                  <c:v>6342066</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6080580</c:v>
+                  <c:v>6356970</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6049428</c:v>
+                  <c:v>6324402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6055236</c:v>
+                  <c:v>6330474</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6065532</c:v>
+                  <c:v>6341238</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6071604</c:v>
+                  <c:v>6347586</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6076884</c:v>
+                  <c:v>6353106</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6061440</c:v>
+                  <c:v>6336960</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6056952</c:v>
+                  <c:v>6332268</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6056292</c:v>
+                  <c:v>6331578</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6077544</c:v>
+                  <c:v>6353796</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6047712</c:v>
+                  <c:v>6322608</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6062364</c:v>
+                  <c:v>6337926</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6051276</c:v>
+                  <c:v>6326334</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6045732</c:v>
+                  <c:v>6320538</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6073452</c:v>
+                  <c:v>6349518</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6050484</c:v>
+                  <c:v>6325506</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6068568</c:v>
+                  <c:v>6344412</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6056292</c:v>
+                  <c:v>6331578</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6048636</c:v>
+                  <c:v>6323574</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6063684</c:v>
+                  <c:v>6339306</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6071604</c:v>
+                  <c:v>6347586</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6070548</c:v>
+                  <c:v>6346482</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6044676</c:v>
+                  <c:v>6319434</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6048108</c:v>
+                  <c:v>6323022</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6066720</c:v>
+                  <c:v>6342480</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6061308</c:v>
+                  <c:v>6336822</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6036888</c:v>
+                  <c:v>6311292</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6070284</c:v>
+                  <c:v>6346206</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6054840</c:v>
+                  <c:v>6330060</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6049560</c:v>
+                  <c:v>6324540</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6067776</c:v>
+                  <c:v>6343584</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6054444</c:v>
+                  <c:v>6329646</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6065796</c:v>
+                  <c:v>6341514</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6047448</c:v>
+                  <c:v>6322332</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6043620</c:v>
+                  <c:v>6318330</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6061176</c:v>
+                  <c:v>6336684</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6059064</c:v>
+                  <c:v>6334476</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6043224</c:v>
+                  <c:v>6317916</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6060252</c:v>
+                  <c:v>6335718</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6049428</c:v>
+                  <c:v>6324402</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6034512</c:v>
+                  <c:v>6308808</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6077016</c:v>
+                  <c:v>6353244</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6037944</c:v>
+                  <c:v>6312396</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6073980</c:v>
+                  <c:v>6350070</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6053916</c:v>
+                  <c:v>6329094</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6055104</c:v>
+                  <c:v>6330336</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6078732</c:v>
+                  <c:v>6355038</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6033192</c:v>
+                  <c:v>6307428</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6061704</c:v>
+                  <c:v>6337236</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6023952</c:v>
+                  <c:v>6297768</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6091272</c:v>
+                  <c:v>6368148</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6040584</c:v>
+                  <c:v>6315156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6056424</c:v>
+                  <c:v>6331716</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6050748</c:v>
+                  <c:v>6325782</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6045336</c:v>
+                  <c:v>6320124</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6084276</c:v>
+                  <c:v>6360834</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6045996</c:v>
+                  <c:v>6320814</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6064080</c:v>
+                  <c:v>6339720</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6090744</c:v>
+                  <c:v>6367596</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6023160</c:v>
+                  <c:v>6296940</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6067644</c:v>
+                  <c:v>6343446</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6033852</c:v>
+                  <c:v>6308118</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6059064</c:v>
+                  <c:v>6334476</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6044808</c:v>
+                  <c:v>6319572</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6036756</c:v>
+                  <c:v>6311154</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6055500</c:v>
+                  <c:v>6330750</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6099720</c:v>
+                  <c:v>6376980</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6037680</c:v>
+                  <c:v>6312120</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6065796</c:v>
+                  <c:v>6341514</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6033324</c:v>
+                  <c:v>6307566</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6074508</c:v>
+                  <c:v>6350622</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6056424</c:v>
+                  <c:v>6331716</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6041508</c:v>
+                  <c:v>6316122</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6042432</c:v>
+                  <c:v>6317088</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6043356</c:v>
+                  <c:v>6318054</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6042960</c:v>
+                  <c:v>6317640</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6037812</c:v>
+                  <c:v>6312258</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6060912</c:v>
+                  <c:v>6336408</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6024348</c:v>
+                  <c:v>6298182</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6092064</c:v>
+                  <c:v>6368976</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6043092</c:v>
+                  <c:v>6317778</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6050088</c:v>
+                  <c:v>6325092</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6056688</c:v>
+                  <c:v>6331992</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6021444</c:v>
+                  <c:v>6295146</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6072264</c:v>
+                  <c:v>6348276</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6020784</c:v>
+                  <c:v>6294456</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6061836</c:v>
+                  <c:v>6337374</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6025932</c:v>
+                  <c:v>6299838</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6063684</c:v>
+                  <c:v>6339306</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>6048636</c:v>
+                  <c:v>6323574</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6025800</c:v>
+                  <c:v>6299700</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6078204</c:v>
+                  <c:v>6354486</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>6021576</c:v>
+                  <c:v>6295284</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6062232</c:v>
+                  <c:v>6337788</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6036756</c:v>
+                  <c:v>6311154</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6039924</c:v>
+                  <c:v>6314466</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6064476</c:v>
+                  <c:v>6340134</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6019860</c:v>
+                  <c:v>6293490</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6085860</c:v>
+                  <c:v>6362490</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6040980</c:v>
+                  <c:v>6315570</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>6016560</c:v>
+                  <c:v>6290040</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6057612</c:v>
+                  <c:v>6332958</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6008376</c:v>
+                  <c:v>6281484</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6084804</c:v>
+                  <c:v>6361386</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6046788</c:v>
+                  <c:v>6321642</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>6010620</c:v>
+                  <c:v>6283830</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6051276</c:v>
+                  <c:v>6326334</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>6021048</c:v>
+                  <c:v>6294732</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>6066720</c:v>
+                  <c:v>6342480</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>6045336</c:v>
+                  <c:v>6320124</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5995836</c:v>
+                  <c:v>6268374</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6078600</c:v>
+                  <c:v>6354900</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6018276</c:v>
+                  <c:v>6291834</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6063420</c:v>
+                  <c:v>6339030</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6042168</c:v>
+                  <c:v>6316812</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6001776</c:v>
+                  <c:v>6274584</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6087972</c:v>
+                  <c:v>6364698</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6054048</c:v>
+                  <c:v>6329232</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6003228</c:v>
+                  <c:v>6276102</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6073716</c:v>
+                  <c:v>6349794</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6013656</c:v>
+                  <c:v>6287004</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6047712</c:v>
+                  <c:v>6322608</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6050352</c:v>
+                  <c:v>6325368</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5981448</c:v>
+                  <c:v>6253332</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6083088</c:v>
+                  <c:v>6359592</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6011544</c:v>
+                  <c:v>6284796</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6048372</c:v>
+                  <c:v>6323298</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6070944</c:v>
+                  <c:v>6346896</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6040452</c:v>
+                  <c:v>6315018</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6020916</c:v>
+                  <c:v>6294594</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6081768</c:v>
+                  <c:v>6358212</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6023028</c:v>
+                  <c:v>6296802</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6036888</c:v>
+                  <c:v>6311292</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6044544</c:v>
+                  <c:v>6319296</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6007188</c:v>
+                  <c:v>6280242</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6068436</c:v>
+                  <c:v>6344274</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6047976</c:v>
+                  <c:v>6322884</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>6005604</c:v>
+                  <c:v>6278586</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>6046524</c:v>
+                  <c:v>6321366</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>6047844</c:v>
+                  <c:v>6322746</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>5989236</c:v>
+                  <c:v>6261474</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>6067248</c:v>
+                  <c:v>6343032</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>6047844</c:v>
+                  <c:v>6322746</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>5990952</c:v>
+                  <c:v>6263268</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>6081240</c:v>
+                  <c:v>6357660</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>6051276</c:v>
+                  <c:v>6326334</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>5993592</c:v>
+                  <c:v>6266028</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>6039396</c:v>
+                  <c:v>6313914</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>6043620</c:v>
+                  <c:v>6318330</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>5989896</c:v>
+                  <c:v>6262164</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>6071208</c:v>
+                  <c:v>6347172</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>6079260</c:v>
+                  <c:v>6355590</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>6049560</c:v>
+                  <c:v>6324540</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>5977356</c:v>
+                  <c:v>6249054</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>12237720</c:v>
+                  <c:v>12793980</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>14142876</c:v>
+                  <c:v>14785734</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14142744</c:v>
+                  <c:v>14785596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,11 +1319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54143232"/>
-        <c:axId val="94129152"/>
+        <c:axId val="116726400"/>
+        <c:axId val="116732288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54143232"/>
+        <c:axId val="116726400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94129152"/>
+        <c:crossAx val="116732288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94129152"/>
+        <c:axId val="116732288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54143232"/>
+        <c:crossAx val="116726400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q184"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J184"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,25 +1778,25 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I34" si="0">(B3 + C3) * COST_BYTE</f>
-        <v>3972090</v>
+        <v>8738598</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J34" si="1">(F3 + G3) * COST_PARA</f>
-        <v>2083488</v>
+        <v>2178192</v>
       </c>
       <c r="K3">
         <f>I3 - J3</f>
-        <v>1888602</v>
+        <v>6560406</v>
       </c>
       <c r="L3" s="1">
         <f>ABS(K3) / J3</f>
-        <v>0.90646166428604336</v>
+        <v>3.0118584587584567</v>
       </c>
       <c r="M3" t="s">
         <v>9</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P3">
         <f>D3 + E3</f>
@@ -1828,25 +1828,25 @@
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>4123935</v>
+        <v>9072657</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>51480</v>
+        <v>53820</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="2">I4 - J4</f>
-        <v>4072455</v>
+        <v>9018837</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L67" si="3">ABS(K4) / J4</f>
-        <v>79.10751748251748</v>
+        <v>167.57408026755851</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P67" si="4">D4 + E4</f>
@@ -1878,19 +1878,19 @@
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>3872835</v>
+        <v>8520237</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>9282504</v>
+        <v>9704436</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>-5409669</v>
+        <v>-1184199</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>0.58278121937787475</v>
+        <v>0.12202656599517994</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
@@ -1922,19 +1922,19 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>3749990</v>
+        <v>8249978</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>14142744</v>
+        <v>14785596</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>-10392754</v>
+        <v>-6535618</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>0.7348470706957575</v>
+        <v>0.44202600963802879</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
@@ -1966,19 +1966,19 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>3750005</v>
+        <v>8250011</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>-10392871</v>
+        <v>-6535723</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484848484848486</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
@@ -2010,19 +2010,19 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>3750010</v>
+        <v>8250022</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>14143008</v>
+        <v>14785872</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>-10392998</v>
+        <v>-6535850</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
-        <v>0.73485060603798003</v>
+        <v>0.44203344922774929</v>
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
@@ -2054,19 +2054,19 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>3749985</v>
+        <v>8249967</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>14142744</v>
+        <v>14785596</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>-10392759</v>
+        <v>-6535629</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484742423393934</v>
+        <v>0.44202675360533317</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
@@ -2098,19 +2098,19 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>3749995</v>
+        <v>8249989</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>-10392881</v>
+        <v>-6535745</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484919191824916</v>
+        <v>0.44203047342796781</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
@@ -2142,19 +2142,19 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>3626745</v>
+        <v>7978839</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>12321804</v>
+        <v>12881886</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>-8695059</v>
+        <v>-4903047</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>0.70566444653721161</v>
+        <v>0.38061561793048004</v>
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
@@ -2186,19 +2186,19 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>3708965</v>
+        <v>8159723</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>13304676</v>
+        <v>13909434</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>-9595711</v>
+        <v>-5749711</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>0.72122846133194074</v>
+        <v>0.41336771862895355</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
@@ -2230,19 +2230,19 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>3749995</v>
+        <v>8249989</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>-10392881</v>
+        <v>-6535745</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484919191824916</v>
+        <v>0.44203047342796781</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
@@ -2274,19 +2274,19 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>3749990</v>
+        <v>8249978</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>14142744</v>
+        <v>14785596</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>-10392754</v>
+        <v>-6535618</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>0.7348470706957575</v>
+        <v>0.44202600963802879</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
@@ -2318,19 +2318,19 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>3750005</v>
+        <v>8250011</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>-10392871</v>
+        <v>-6535723</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484848484848486</v>
+        <v>0.4420289855072464</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
@@ -2362,19 +2362,19 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>3750010</v>
+        <v>8250022</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>14143008</v>
+        <v>14785872</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>-10392998</v>
+        <v>-6535850</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
-        <v>0.73485060603798003</v>
+        <v>0.44203344922774929</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
@@ -2406,19 +2406,19 @@
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>3749985</v>
+        <v>8249967</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>14142744</v>
+        <v>14785596</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>-10392759</v>
+        <v>-6535629</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484742423393934</v>
+        <v>0.44202675360533317</v>
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
@@ -2450,19 +2450,19 @@
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>3749995</v>
+        <v>8249989</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>-10392881</v>
+        <v>-6535745</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
-        <v>0.73484919191824916</v>
+        <v>0.44203047342796781</v>
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
@@ -2494,19 +2494,19 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>3749770</v>
+        <v>8249494</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>14141028</v>
+        <v>14783802</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>-10391258</v>
+        <v>-6534308</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="3"/>
-        <v>0.73483045221323373</v>
+        <v>0.44199103857045702</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
@@ -2538,19 +2538,19 @@
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>3283175</v>
+        <v>7222985</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>6050220</v>
+        <v>6325230</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>-2767045</v>
+        <v>897755</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>0.45734617914720455</v>
+        <v>0.14193238822936083</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
@@ -2582,19 +2582,19 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>3256610</v>
+        <v>7164542</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>6094572</v>
+        <v>6371598</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>-2837962</v>
+        <v>792944</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>0.46565402787923416</v>
+        <v>0.12444978481065504</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
@@ -2626,19 +2626,19 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>3258380</v>
+        <v>7168436</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>6080184</v>
+        <v>6356556</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>-2821804</v>
+        <v>811880</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>0.4640984549151802</v>
+        <v>0.12772325139588167</v>
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
@@ -2670,19 +2670,19 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>3259620</v>
+        <v>7171164</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>6075696</v>
+        <v>6351864</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>-2816076</v>
+        <v>819300</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>0.46349850288757038</v>
+        <v>0.12898575914093879</v>
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
@@ -2714,19 +2714,19 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>3256865</v>
+        <v>7165103</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>6084540</v>
+        <v>6361110</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>-2827675</v>
+        <v>803993</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="3"/>
-        <v>0.46473110539169765</v>
+        <v>0.12639193474094931</v>
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
@@ -2758,19 +2758,19 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>3259085</v>
+        <v>7169987</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>6067908</v>
+        <v>6343722</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>-2808823</v>
+        <v>826265</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="3"/>
-        <v>0.46289808612787142</v>
+        <v>0.13024924484395753</v>
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
@@ -2802,19 +2802,19 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>3258580</v>
+        <v>7168876</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>6066324</v>
+        <v>6342066</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>-2807744</v>
+        <v>826810</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="3"/>
-        <v>0.46284108794716539</v>
+        <v>0.13036918884161722</v>
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
@@ -2846,19 +2846,19 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>3259395</v>
+        <v>7170669</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>6080580</v>
+        <v>6356970</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>-2821185</v>
+        <v>813699</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="3"/>
-        <v>0.46396643083390071</v>
+        <v>0.12800107598431329</v>
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
@@ -2890,19 +2890,19 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>3259155</v>
+        <v>7170141</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>6049428</v>
+        <v>6324402</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>-2790273</v>
+        <v>845739</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="3"/>
-        <v>0.46124575745012586</v>
+        <v>0.13372631910495253</v>
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
@@ -2934,19 +2934,19 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>3260260</v>
+        <v>7172572</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>6055236</v>
+        <v>6330474</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>-2794976</v>
+        <v>842098</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="3"/>
-        <v>0.46158002759925459</v>
+        <v>0.13302289844330772</v>
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
@@ -2978,19 +2978,19 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>3259020</v>
+        <v>7169844</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>6065532</v>
+        <v>6341238</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>-2806512</v>
+        <v>828606</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="3"/>
-        <v>0.46269840798795553</v>
+        <v>0.13066943710360659</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
@@ -3022,19 +3022,19 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>3257670</v>
+        <v>7166874</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>6071604</v>
+        <v>6347586</v>
       </c>
       <c r="K31">
         <f t="shared" si="2"/>
-        <v>-2813934</v>
+        <v>819288</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="3"/>
-        <v>0.46345809114033126</v>
+        <v>0.12907079951338982</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -3066,19 +3066,19 @@
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>3259130</v>
+        <v>7170086</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>6076884</v>
+        <v>6353106</v>
       </c>
       <c r="K32">
         <f t="shared" si="2"/>
-        <v>-2817754</v>
+        <v>816980</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="3"/>
-        <v>0.46368401963901235</v>
+        <v>0.12859536736833921</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
@@ -3110,19 +3110,19 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>3259895</v>
+        <v>7171769</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>6061440</v>
+        <v>6336960</v>
       </c>
       <c r="K33">
         <f t="shared" si="2"/>
-        <v>-2801545</v>
+        <v>834809</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="3"/>
-        <v>0.46219132747333969</v>
+        <v>0.13173651088218957</v>
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
@@ -3154,19 +3154,19 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>3261265</v>
+        <v>7174783</v>
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>6056952</v>
+        <v>6332268</v>
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>-2795687</v>
+        <v>842515</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="3"/>
-        <v>0.461566642760253</v>
+        <v>0.13305106480016324</v>
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
@@ -3198,19 +3198,19 @@
       </c>
       <c r="I35">
         <f t="shared" ref="I35:I66" si="6">(B35 + C35) * COST_BYTE</f>
-        <v>3260395</v>
+        <v>7172869</v>
       </c>
       <c r="J35">
         <f t="shared" ref="J35:J66" si="7">(F35 + G35) * COST_PARA</f>
-        <v>6056292</v>
+        <v>6331578</v>
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>-2795897</v>
+        <v>841291</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="3"/>
-        <v>0.46165161785462128</v>
+        <v>0.13287224764505784</v>
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
@@ -3242,19 +3242,19 @@
       </c>
       <c r="I36">
         <f t="shared" si="6"/>
-        <v>3255740</v>
+        <v>7162628</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>6077544</v>
+        <v>6353796</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>-2821804</v>
+        <v>808832</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="3"/>
-        <v>0.46430005278448006</v>
+        <v>0.12729901935787677</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
@@ -3286,19 +3286,19 @@
       </c>
       <c r="I37">
         <f t="shared" si="6"/>
-        <v>3260100</v>
+        <v>7172220</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>6047712</v>
+        <v>6322608</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>-2787612</v>
+        <v>849612</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="3"/>
-        <v>0.46093663190310652</v>
+        <v>0.13437682677781068</v>
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
@@ -3330,19 +3330,19 @@
       </c>
       <c r="I38">
         <f t="shared" si="6"/>
-        <v>3259910</v>
+        <v>7171802</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>6062364</v>
+        <v>6337926</v>
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>-2802454</v>
+        <v>833876</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="3"/>
-        <v>0.46227082372487038</v>
+        <v>0.13156922311809888</v>
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
@@ -3374,19 +3374,19 @@
       </c>
       <c r="I39">
         <f t="shared" si="6"/>
-        <v>3259965</v>
+        <v>7171923</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
-        <v>6051276</v>
+        <v>6326334</v>
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>-2791311</v>
+        <v>845589</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="3"/>
-        <v>0.46127643161541465</v>
+        <v>0.13366176999191001</v>
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
@@ -3418,19 +3418,19 @@
       </c>
       <c r="I40">
         <f t="shared" si="6"/>
-        <v>3261535</v>
+        <v>7175377</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
-        <v>6045732</v>
+        <v>6320538</v>
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>-2784197</v>
+        <v>854839</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="3"/>
-        <v>0.46052272909219266</v>
+        <v>0.13524782225816853</v>
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
@@ -3462,19 +3462,19 @@
       </c>
       <c r="I41">
         <f t="shared" si="6"/>
-        <v>3256455</v>
+        <v>7164201</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>6073452</v>
+        <v>6349518</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>-2816997</v>
+        <v>814683</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="3"/>
-        <v>0.46382139844029391</v>
+        <v>0.12830627458651192</v>
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
@@ -3506,19 +3506,19 @@
       </c>
       <c r="I42">
         <f t="shared" si="6"/>
-        <v>3261360</v>
+        <v>7174992</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
-        <v>6050484</v>
+        <v>6325506</v>
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
-        <v>-2789124</v>
+        <v>849486</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="3"/>
-        <v>0.46097535337668855</v>
+        <v>0.13429534332905541</v>
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
@@ -3550,19 +3550,19 @@
       </c>
       <c r="I43">
         <f t="shared" si="6"/>
-        <v>3258665</v>
+        <v>7169063</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
-        <v>6068568</v>
+        <v>6344412</v>
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
-        <v>-2809903</v>
+        <v>824651</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="3"/>
-        <v>0.4630257088657489</v>
+        <v>0.12998068221294581</v>
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
@@ -3594,19 +3594,19 @@
       </c>
       <c r="I44">
         <f t="shared" si="6"/>
-        <v>3259330</v>
+        <v>7170526</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
-        <v>6056292</v>
+        <v>6331578</v>
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
-        <v>-2796962</v>
+        <v>838948</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="3"/>
-        <v>0.46182746802829189</v>
+        <v>0.13250219771437705</v>
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
@@ -3638,19 +3638,19 @@
       </c>
       <c r="I45">
         <f t="shared" si="6"/>
-        <v>3261515</v>
+        <v>7175333</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
-        <v>6048636</v>
+        <v>6323574</v>
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>-2787121</v>
+        <v>851759</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="3"/>
-        <v>0.46078504310723939</v>
+        <v>0.13469582233085278</v>
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
@@ -3682,19 +3682,19 @@
       </c>
       <c r="I46">
         <f t="shared" si="6"/>
-        <v>3259795</v>
+        <v>7171549</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
-        <v>6063684</v>
+        <v>6339306</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>-2803889</v>
+        <v>832243</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="3"/>
-        <v>0.46240684705865281</v>
+        <v>0.13128298271135674</v>
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
@@ -3726,19 +3726,19 @@
       </c>
       <c r="I47">
         <f t="shared" si="6"/>
-        <v>3258645</v>
+        <v>7169019</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
-        <v>6071604</v>
+        <v>6347586</v>
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
-        <v>-2812959</v>
+        <v>821433</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="3"/>
-        <v>0.46329750754495846</v>
+        <v>0.12940872325321784</v>
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
@@ -3770,19 +3770,19 @@
       </c>
       <c r="I48">
         <f t="shared" si="6"/>
-        <v>3258715</v>
+        <v>7169173</v>
       </c>
       <c r="J48">
         <f t="shared" si="7"/>
-        <v>6070548</v>
+        <v>6346482</v>
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>-2811833</v>
+        <v>822691</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="3"/>
-        <v>0.46319261457120509</v>
+        <v>0.12962945455450753</v>
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
@@ -3814,19 +3814,19 @@
       </c>
       <c r="I49">
         <f t="shared" si="6"/>
-        <v>3262445</v>
+        <v>7177379</v>
       </c>
       <c r="J49">
         <f t="shared" si="7"/>
-        <v>6044676</v>
+        <v>6319434</v>
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
-        <v>-2782231</v>
+        <v>857945</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="3"/>
-        <v>0.46027793714667253</v>
+        <v>0.13576294965656735</v>
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
@@ -3858,19 +3858,19 @@
       </c>
       <c r="I50">
         <f t="shared" si="6"/>
-        <v>3260970</v>
+        <v>7174134</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
-        <v>6048108</v>
+        <v>6323022</v>
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>-2787138</v>
+        <v>851112</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="3"/>
-        <v>0.46082808045094431</v>
+        <v>0.13460525679018673</v>
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
@@ -3902,19 +3902,19 @@
       </c>
       <c r="I51">
         <f t="shared" si="6"/>
-        <v>3256375</v>
+        <v>7164025</v>
       </c>
       <c r="J51">
         <f t="shared" si="7"/>
-        <v>6066720</v>
+        <v>6342480</v>
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
-        <v>-2810345</v>
+        <v>821545</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="3"/>
-        <v>0.46323960888255927</v>
+        <v>0.12953056217757092</v>
       </c>
       <c r="P51">
         <f t="shared" si="4"/>
@@ -3946,19 +3946,19 @@
       </c>
       <c r="I52">
         <f t="shared" si="6"/>
-        <v>3260960</v>
+        <v>7174112</v>
       </c>
       <c r="J52">
         <f t="shared" si="7"/>
-        <v>6061308</v>
+        <v>6336822</v>
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
-        <v>-2800348</v>
+        <v>837290</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="3"/>
-        <v>0.46200391070706193</v>
+        <v>0.13213090094687843</v>
       </c>
       <c r="P52">
         <f t="shared" si="4"/>
@@ -3990,19 +3990,19 @@
       </c>
       <c r="I53">
         <f t="shared" si="6"/>
-        <v>3262480</v>
+        <v>7177456</v>
       </c>
       <c r="J53">
         <f t="shared" si="7"/>
-        <v>6036888</v>
+        <v>6311292</v>
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>-2774408</v>
+        <v>866164</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="3"/>
-        <v>0.45957586094027253</v>
+        <v>0.13724036219525257</v>
       </c>
       <c r="P53">
         <f t="shared" si="4"/>
@@ -4034,19 +4034,19 @@
       </c>
       <c r="I54">
         <f t="shared" si="6"/>
-        <v>3259800</v>
+        <v>7171560</v>
       </c>
       <c r="J54">
         <f t="shared" si="7"/>
-        <v>6070284</v>
+        <v>6346206</v>
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>-2810484</v>
+        <v>825354</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="3"/>
-        <v>0.46299052894395054</v>
+        <v>0.13005471300490404</v>
       </c>
       <c r="P54">
         <f t="shared" si="4"/>
@@ -4078,19 +4078,19 @@
       </c>
       <c r="I55">
         <f t="shared" si="6"/>
-        <v>3261350</v>
+        <v>7174970</v>
       </c>
       <c r="J55">
         <f t="shared" si="7"/>
-        <v>6054840</v>
+        <v>6330060</v>
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>-2793490</v>
+        <v>844910</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="3"/>
-        <v>0.46136479246354983</v>
+        <v>0.13347582803322558</v>
       </c>
       <c r="P55">
         <f t="shared" si="4"/>
@@ -4122,19 +4122,19 @@
       </c>
       <c r="I56">
         <f t="shared" si="6"/>
-        <v>3258555</v>
+        <v>7168821</v>
       </c>
       <c r="J56">
         <f t="shared" si="7"/>
-        <v>6049560</v>
+        <v>6324540</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>-2791005</v>
+        <v>844281</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="3"/>
-        <v>0.46135669370995575</v>
+        <v>0.13349287062774526</v>
       </c>
       <c r="P56">
         <f t="shared" si="4"/>
@@ -4166,19 +4166,19 @@
       </c>
       <c r="I57">
         <f t="shared" si="6"/>
-        <v>3258415</v>
+        <v>7168513</v>
       </c>
       <c r="J57">
         <f t="shared" si="7"/>
-        <v>6067776</v>
+        <v>6343584</v>
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>-2809361</v>
+        <v>824929</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="3"/>
-        <v>0.46299682124059954</v>
+        <v>0.1300414718241297</v>
       </c>
       <c r="P57">
         <f t="shared" si="4"/>
@@ -4210,19 +4210,19 @@
       </c>
       <c r="I58">
         <f t="shared" si="6"/>
-        <v>3257505</v>
+        <v>7166511</v>
       </c>
       <c r="J58">
         <f t="shared" si="7"/>
-        <v>6054444</v>
+        <v>6329646</v>
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>-2796939</v>
+        <v>836865</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="3"/>
-        <v>0.46196463292087597</v>
+        <v>0.13221355507085231</v>
       </c>
       <c r="P58">
         <f t="shared" si="4"/>
@@ -4254,19 +4254,19 @@
       </c>
       <c r="I59">
         <f t="shared" si="6"/>
-        <v>3259625</v>
+        <v>7171175</v>
       </c>
       <c r="J59">
         <f t="shared" si="7"/>
-        <v>6065796</v>
+        <v>6341514</v>
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>-2806171</v>
+        <v>829661</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="3"/>
-        <v>0.46262205323093625</v>
+        <v>0.13083011407055162</v>
       </c>
       <c r="P59">
         <f t="shared" si="4"/>
@@ -4298,19 +4298,19 @@
       </c>
       <c r="I60">
         <f t="shared" si="6"/>
-        <v>3259775</v>
+        <v>7171505</v>
       </c>
       <c r="J60">
         <f t="shared" si="7"/>
-        <v>6047448</v>
+        <v>6322332</v>
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>-2787673</v>
+        <v>849173</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="3"/>
-        <v>0.4609668408889171</v>
+        <v>0.13431325656419182</v>
       </c>
       <c r="P60">
         <f t="shared" si="4"/>
@@ -4342,19 +4342,19 @@
       </c>
       <c r="I61">
         <f t="shared" si="6"/>
-        <v>3262380</v>
+        <v>7177236</v>
       </c>
       <c r="J61">
         <f t="shared" si="7"/>
-        <v>6043620</v>
+        <v>6318330</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>-2781240</v>
+        <v>858906</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="3"/>
-        <v>0.46019438680790653</v>
+        <v>0.13593876863031845</v>
       </c>
       <c r="P61">
         <f t="shared" si="4"/>
@@ -4386,19 +4386,19 @@
       </c>
       <c r="I62">
         <f t="shared" si="6"/>
-        <v>3260810</v>
+        <v>7173782</v>
       </c>
       <c r="J62">
         <f t="shared" si="7"/>
-        <v>6061176</v>
+        <v>6336684</v>
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>-2800366</v>
+        <v>837098</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="3"/>
-        <v>0.46201694192678122</v>
+        <v>0.13210347872799086</v>
       </c>
       <c r="P62">
         <f t="shared" si="4"/>
@@ -4430,19 +4430,19 @@
       </c>
       <c r="I63">
         <f t="shared" si="6"/>
-        <v>3260030</v>
+        <v>7172066</v>
       </c>
       <c r="J63">
         <f t="shared" si="7"/>
-        <v>6059064</v>
+        <v>6334476</v>
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>-2799034</v>
+        <v>837590</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="3"/>
-        <v>0.46195815063184675</v>
+        <v>0.13222719606167899</v>
       </c>
       <c r="P63">
         <f t="shared" si="4"/>
@@ -4474,19 +4474,19 @@
       </c>
       <c r="I64">
         <f t="shared" si="6"/>
-        <v>3261965</v>
+        <v>7176323</v>
       </c>
       <c r="J64">
         <f t="shared" si="7"/>
-        <v>6043224</v>
+        <v>6317916</v>
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>-2781259</v>
+        <v>858407</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="3"/>
-        <v>0.46022768641374207</v>
+        <v>0.13586869467716886</v>
       </c>
       <c r="P64">
         <f t="shared" si="4"/>
@@ -4518,19 +4518,19 @@
       </c>
       <c r="I65">
         <f t="shared" si="6"/>
-        <v>3258910</v>
+        <v>7169602</v>
       </c>
       <c r="J65">
         <f t="shared" si="7"/>
-        <v>6060252</v>
+        <v>6335718</v>
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>-2801342</v>
+        <v>833884</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="3"/>
-        <v>0.46224843455354664</v>
+        <v>0.13161633772210191</v>
       </c>
       <c r="P65">
         <f t="shared" si="4"/>
@@ -4562,19 +4562,19 @@
       </c>
       <c r="I66">
         <f t="shared" si="6"/>
-        <v>3261375</v>
+        <v>7175025</v>
       </c>
       <c r="J66">
         <f t="shared" si="7"/>
-        <v>6049428</v>
+        <v>6324402</v>
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>-2788053</v>
+        <v>850623</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="3"/>
-        <v>0.46087878060537296</v>
+        <v>0.13449856603043259</v>
       </c>
       <c r="P66">
         <f t="shared" si="4"/>
@@ -4606,19 +4606,19 @@
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I98" si="8">(B67 + C67) * COST_BYTE</f>
-        <v>3262310</v>
+        <v>7177082</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J98" si="9">(F67 + G67) * COST_PARA</f>
-        <v>6034512</v>
+        <v>6308808</v>
       </c>
       <c r="K67">
         <f t="shared" si="2"/>
-        <v>-2772202</v>
+        <v>868274</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="3"/>
-        <v>0.45939124820698013</v>
+        <v>0.13762885159922444</v>
       </c>
       <c r="P67">
         <f t="shared" si="4"/>
@@ -4650,19 +4650,19 @@
       </c>
       <c r="I68">
         <f t="shared" si="8"/>
-        <v>3256135</v>
+        <v>7163497</v>
       </c>
       <c r="J68">
         <f t="shared" si="9"/>
-        <v>6077016</v>
+        <v>6353244</v>
       </c>
       <c r="K68">
         <f t="shared" ref="K68:K131" si="10">I68 - J68</f>
-        <v>-2820881</v>
+        <v>810253</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" ref="L68:L131" si="11">ABS(K68) / J68</f>
-        <v>0.4641885096238022</v>
+        <v>0.12753374496556405</v>
       </c>
       <c r="P68">
         <f t="shared" ref="P68:P131" si="12">D68 + E68</f>
@@ -4694,19 +4694,19 @@
       </c>
       <c r="I69">
         <f t="shared" si="8"/>
-        <v>3261945</v>
+        <v>7176279</v>
       </c>
       <c r="J69">
         <f t="shared" si="9"/>
-        <v>6037944</v>
+        <v>6312396</v>
       </c>
       <c r="K69">
         <f t="shared" si="10"/>
-        <v>-2775999</v>
+        <v>863883</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="11"/>
-        <v>0.45975898418402028</v>
+        <v>0.13685500719536606</v>
       </c>
       <c r="P69">
         <f t="shared" si="12"/>
@@ -4738,19 +4738,19 @@
       </c>
       <c r="I70">
         <f t="shared" si="8"/>
-        <v>3257990</v>
+        <v>7167578</v>
       </c>
       <c r="J70">
         <f t="shared" si="9"/>
-        <v>6073980</v>
+        <v>6350070</v>
       </c>
       <c r="K70">
         <f t="shared" si="10"/>
-        <v>-2815990</v>
+        <v>817508</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="11"/>
-        <v>0.46361529013924974</v>
+        <v>0.12873999814175277</v>
       </c>
       <c r="P70">
         <f t="shared" si="12"/>
@@ -4782,19 +4782,19 @@
       </c>
       <c r="I71">
         <f t="shared" si="8"/>
-        <v>3260715</v>
+        <v>7173573</v>
       </c>
       <c r="J71">
         <f t="shared" si="9"/>
-        <v>6053916</v>
+        <v>6329094</v>
       </c>
       <c r="K71">
         <f t="shared" si="10"/>
-        <v>-2793201</v>
+        <v>844479</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="11"/>
-        <v>0.46138747217503512</v>
+        <v>0.13342810203166519</v>
       </c>
       <c r="P71">
         <f t="shared" si="12"/>
@@ -4826,19 +4826,19 @@
       </c>
       <c r="I72">
         <f t="shared" si="8"/>
-        <v>3258255</v>
+        <v>7168161</v>
       </c>
       <c r="J72">
         <f t="shared" si="9"/>
-        <v>6055104</v>
+        <v>6330336</v>
       </c>
       <c r="K72">
         <f t="shared" si="10"/>
-        <v>-2796849</v>
+        <v>837825</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="11"/>
-        <v>0.46189941576560867</v>
+        <v>0.13235079464976265</v>
       </c>
       <c r="P72">
         <f t="shared" si="12"/>
@@ -4870,19 +4870,19 @@
       </c>
       <c r="I73">
         <f t="shared" si="8"/>
-        <v>3257490</v>
+        <v>7166478</v>
       </c>
       <c r="J73">
         <f t="shared" si="9"/>
-        <v>6078732</v>
+        <v>6355038</v>
       </c>
       <c r="K73">
         <f t="shared" si="10"/>
-        <v>-2821242</v>
+        <v>811440</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" si="11"/>
-        <v>0.46411685858169105</v>
+        <v>0.12768452368026753</v>
       </c>
       <c r="P73">
         <f t="shared" si="12"/>
@@ -4914,19 +4914,19 @@
       </c>
       <c r="I74">
         <f t="shared" si="8"/>
-        <v>3261405</v>
+        <v>7175091</v>
       </c>
       <c r="J74">
         <f t="shared" si="9"/>
-        <v>6033192</v>
+        <v>6307428</v>
       </c>
       <c r="K74">
         <f t="shared" si="10"/>
-        <v>-2771787</v>
+        <v>867663</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="11"/>
-        <v>0.4594229721182419</v>
+        <v>0.13756209345552578</v>
       </c>
       <c r="P74">
         <f t="shared" si="12"/>
@@ -4958,19 +4958,19 @@
       </c>
       <c r="I75">
         <f t="shared" si="8"/>
-        <v>3260840</v>
+        <v>7173848</v>
       </c>
       <c r="J75">
         <f t="shared" si="9"/>
-        <v>6061704</v>
+        <v>6337236</v>
       </c>
       <c r="K75">
         <f t="shared" si="10"/>
-        <v>-2800864</v>
+        <v>836612</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="11"/>
-        <v>0.46205885341811476</v>
+        <v>0.132015282372315</v>
       </c>
       <c r="P75">
         <f t="shared" si="12"/>
@@ -5002,19 +5002,19 @@
       </c>
       <c r="I76">
         <f t="shared" si="8"/>
-        <v>3261820</v>
+        <v>7176004</v>
       </c>
       <c r="J76">
         <f t="shared" si="9"/>
-        <v>6023952</v>
+        <v>6297768</v>
       </c>
       <c r="K76">
         <f t="shared" si="10"/>
-        <v>-2762132</v>
+        <v>878236</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" si="11"/>
-        <v>0.45852490192484935</v>
+        <v>0.13945194551466489</v>
       </c>
       <c r="P76">
         <f t="shared" si="12"/>
@@ -5046,19 +5046,19 @@
       </c>
       <c r="I77">
         <f t="shared" si="8"/>
-        <v>3256815</v>
+        <v>7164993</v>
       </c>
       <c r="J77">
         <f t="shared" si="9"/>
-        <v>6091272</v>
+        <v>6368148</v>
       </c>
       <c r="K77">
         <f t="shared" si="10"/>
-        <v>-2834457</v>
+        <v>796845</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" si="11"/>
-        <v>0.46533088655374444</v>
+        <v>0.12512978655646823</v>
       </c>
       <c r="P77">
         <f t="shared" si="12"/>
@@ -5090,19 +5090,19 @@
       </c>
       <c r="I78">
         <f t="shared" si="8"/>
-        <v>3260920</v>
+        <v>7174024</v>
       </c>
       <c r="J78">
         <f t="shared" si="9"/>
-        <v>6040584</v>
+        <v>6315156</v>
       </c>
       <c r="K78">
         <f t="shared" si="10"/>
-        <v>-2779664</v>
+        <v>858868</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" si="11"/>
-        <v>0.46016477876973483</v>
+        <v>0.13600107424107971</v>
       </c>
       <c r="P78">
         <f t="shared" si="12"/>
@@ -5134,19 +5134,19 @@
       </c>
       <c r="I79">
         <f t="shared" si="8"/>
-        <v>3259655</v>
+        <v>7171241</v>
       </c>
       <c r="J79">
         <f t="shared" si="9"/>
-        <v>6056424</v>
+        <v>6331716</v>
       </c>
       <c r="K79">
         <f t="shared" si="10"/>
-        <v>-2796769</v>
+        <v>839525</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" si="11"/>
-        <v>0.46178553549091017</v>
+        <v>0.13259043835825865</v>
       </c>
       <c r="P79">
         <f t="shared" si="12"/>
@@ -5178,19 +5178,19 @@
       </c>
       <c r="I80">
         <f t="shared" si="8"/>
-        <v>3260495</v>
+        <v>7173089</v>
       </c>
       <c r="J80">
         <f t="shared" si="9"/>
-        <v>6050748</v>
+        <v>6325782</v>
       </c>
       <c r="K80">
         <f t="shared" si="10"/>
-        <v>-2790253</v>
+        <v>847307</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" si="11"/>
-        <v>0.46114182907633899</v>
+        <v>0.13394502055239968</v>
       </c>
       <c r="P80">
         <f t="shared" si="12"/>
@@ -5222,19 +5222,19 @@
       </c>
       <c r="I81">
         <f t="shared" si="8"/>
-        <v>3261240</v>
+        <v>7174728</v>
       </c>
       <c r="J81">
         <f t="shared" si="9"/>
-        <v>6045336</v>
+        <v>6320124</v>
       </c>
       <c r="K81">
         <f t="shared" si="10"/>
-        <v>-2784096</v>
+        <v>854604</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" si="11"/>
-        <v>0.46053618855924633</v>
+        <v>0.1352194988579338</v>
       </c>
       <c r="P81">
         <f t="shared" si="12"/>
@@ -5266,19 +5266,19 @@
       </c>
       <c r="I82">
         <f t="shared" si="8"/>
-        <v>3254350</v>
+        <v>7159570</v>
       </c>
       <c r="J82">
         <f t="shared" si="9"/>
-        <v>6084276</v>
+        <v>6360834</v>
       </c>
       <c r="K82">
         <f t="shared" si="10"/>
-        <v>-2829926</v>
+        <v>798736</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" si="11"/>
-        <v>0.4651212403908041</v>
+        <v>0.12557095500369919</v>
       </c>
       <c r="P82">
         <f t="shared" si="12"/>
@@ -5310,19 +5310,19 @@
       </c>
       <c r="I83">
         <f t="shared" si="8"/>
-        <v>3261685</v>
+        <v>7175707</v>
       </c>
       <c r="J83">
         <f t="shared" si="9"/>
-        <v>6045996</v>
+        <v>6320814</v>
       </c>
       <c r="K83">
         <f t="shared" si="10"/>
-        <v>-2784311</v>
+        <v>854893</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" si="11"/>
-        <v>0.46052147570061241</v>
+        <v>0.13525045983001557</v>
       </c>
       <c r="P83">
         <f t="shared" si="12"/>
@@ -5354,19 +5354,19 @@
       </c>
       <c r="I84">
         <f t="shared" si="8"/>
-        <v>3257550</v>
+        <v>7166610</v>
       </c>
       <c r="J84">
         <f t="shared" si="9"/>
-        <v>6064080</v>
+        <v>6339720</v>
       </c>
       <c r="K84">
         <f t="shared" si="10"/>
-        <v>-2806530</v>
+        <v>826890</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" si="11"/>
-        <v>0.46281216606641074</v>
+        <v>0.13043005053850959</v>
       </c>
       <c r="P84">
         <f t="shared" si="12"/>
@@ -5398,19 +5398,19 @@
       </c>
       <c r="I85">
         <f t="shared" si="8"/>
-        <v>3254820</v>
+        <v>7160604</v>
       </c>
       <c r="J85">
         <f t="shared" si="9"/>
-        <v>6090744</v>
+        <v>6367596</v>
       </c>
       <c r="K85">
         <f t="shared" si="10"/>
-        <v>-2835924</v>
+        <v>793008</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" si="11"/>
-        <v>0.46561208285884287</v>
+        <v>0.12453805172313068</v>
       </c>
       <c r="P85">
         <f t="shared" si="12"/>
@@ -5442,19 +5442,19 @@
       </c>
       <c r="I86">
         <f t="shared" si="8"/>
-        <v>3261650</v>
+        <v>7175630</v>
       </c>
       <c r="J86">
         <f t="shared" si="9"/>
-        <v>6023160</v>
+        <v>6296940</v>
       </c>
       <c r="K86">
         <f t="shared" si="10"/>
-        <v>-2761510</v>
+        <v>878690</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" si="11"/>
-        <v>0.45848192643064439</v>
+        <v>0.13954238090247009</v>
       </c>
       <c r="P86">
         <f t="shared" si="12"/>
@@ -5486,19 +5486,19 @@
       </c>
       <c r="I87">
         <f t="shared" si="8"/>
-        <v>3259005</v>
+        <v>7169811</v>
       </c>
       <c r="J87">
         <f t="shared" si="9"/>
-        <v>6067644</v>
+        <v>6343446</v>
       </c>
       <c r="K87">
         <f t="shared" si="10"/>
-        <v>-2808639</v>
+        <v>826365</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" si="11"/>
-        <v>0.46288790179516137</v>
+        <v>0.13027067622235611</v>
       </c>
       <c r="P87">
         <f t="shared" si="12"/>
@@ -5530,19 +5530,19 @@
       </c>
       <c r="I88">
         <f t="shared" si="8"/>
-        <v>3261920</v>
+        <v>7176224</v>
       </c>
       <c r="J88">
         <f t="shared" si="9"/>
-        <v>6033852</v>
+        <v>6308118</v>
       </c>
       <c r="K88">
         <f t="shared" si="10"/>
-        <v>-2771932</v>
+        <v>868106</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="11"/>
-        <v>0.4593967502020268</v>
+        <v>0.13761727348790875</v>
       </c>
       <c r="P88">
         <f t="shared" si="12"/>
@@ -5574,19 +5574,19 @@
       </c>
       <c r="I89">
         <f t="shared" si="8"/>
-        <v>3259980</v>
+        <v>7171956</v>
       </c>
       <c r="J89">
         <f t="shared" si="9"/>
-        <v>6059064</v>
+        <v>6334476</v>
       </c>
       <c r="K89">
         <f t="shared" si="10"/>
-        <v>-2799084</v>
+        <v>837480</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" si="11"/>
-        <v>0.46196640273151102</v>
+        <v>0.13220983077368989</v>
       </c>
       <c r="P89">
         <f t="shared" si="12"/>
@@ -5618,19 +5618,19 @@
       </c>
       <c r="I90">
         <f t="shared" si="8"/>
-        <v>3259085</v>
+        <v>7169987</v>
       </c>
       <c r="J90">
         <f t="shared" si="9"/>
-        <v>6044808</v>
+        <v>6319572</v>
       </c>
       <c r="K90">
         <f t="shared" si="10"/>
-        <v>-2785723</v>
+        <v>850415</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" si="11"/>
-        <v>0.46084557193545272</v>
+        <v>0.13456844862278647</v>
       </c>
       <c r="P90">
         <f t="shared" si="12"/>
@@ -5662,19 +5662,19 @@
       </c>
       <c r="I91">
         <f t="shared" si="8"/>
-        <v>3261675</v>
+        <v>7175685</v>
       </c>
       <c r="J91">
         <f t="shared" si="9"/>
-        <v>6036756</v>
+        <v>6311154</v>
       </c>
       <c r="K91">
         <f t="shared" si="10"/>
-        <v>-2775081</v>
+        <v>864531</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" si="11"/>
-        <v>0.45969739376579077</v>
+        <v>0.13698461485807509</v>
       </c>
       <c r="P91">
         <f t="shared" si="12"/>
@@ -5706,19 +5706,19 @@
       </c>
       <c r="I92">
         <f t="shared" si="8"/>
-        <v>3258420</v>
+        <v>7168524</v>
       </c>
       <c r="J92">
         <f t="shared" si="9"/>
-        <v>6055500</v>
+        <v>6330750</v>
       </c>
       <c r="K92">
         <f t="shared" si="10"/>
-        <v>-2797080</v>
+        <v>837774</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" si="11"/>
-        <v>0.46190735694822888</v>
+        <v>0.13233408363937921</v>
       </c>
       <c r="P92">
         <f t="shared" si="12"/>
@@ -5750,19 +5750,19 @@
       </c>
       <c r="I93">
         <f t="shared" si="8"/>
-        <v>3252830</v>
+        <v>7156226</v>
       </c>
       <c r="J93">
         <f t="shared" si="9"/>
-        <v>6099720</v>
+        <v>6376980</v>
       </c>
       <c r="K93">
         <f t="shared" si="10"/>
-        <v>-2846890</v>
+        <v>779246</v>
       </c>
       <c r="L93" s="1">
         <f t="shared" si="11"/>
-        <v>0.46672470211747424</v>
+        <v>0.12219671380496724</v>
       </c>
       <c r="P93">
         <f t="shared" si="12"/>
@@ -5794,19 +5794,19 @@
       </c>
       <c r="I94">
         <f t="shared" si="8"/>
-        <v>3262140</v>
+        <v>7176708</v>
       </c>
       <c r="J94">
         <f t="shared" si="9"/>
-        <v>6037680</v>
+        <v>6312120</v>
       </c>
       <c r="K94">
         <f t="shared" si="10"/>
-        <v>-2775540</v>
+        <v>864588</v>
       </c>
       <c r="L94" s="1">
         <f t="shared" si="11"/>
-        <v>0.45970306475334899</v>
+        <v>0.13697268112773522</v>
       </c>
       <c r="P94">
         <f t="shared" si="12"/>
@@ -5838,19 +5838,19 @@
       </c>
       <c r="I95">
         <f t="shared" si="8"/>
-        <v>3256675</v>
+        <v>7164685</v>
       </c>
       <c r="J95">
         <f t="shared" si="9"/>
-        <v>6065796</v>
+        <v>6341514</v>
       </c>
       <c r="K95">
         <f t="shared" si="10"/>
-        <v>-2809121</v>
+        <v>823171</v>
       </c>
       <c r="L95" s="1">
         <f t="shared" si="11"/>
-        <v>0.46310838676407845</v>
+        <v>0.12980669915733056</v>
       </c>
       <c r="P95">
         <f t="shared" si="12"/>
@@ -5882,19 +5882,19 @@
       </c>
       <c r="I96">
         <f t="shared" si="8"/>
-        <v>3261730</v>
+        <v>7175806</v>
       </c>
       <c r="J96">
         <f t="shared" si="9"/>
-        <v>6033324</v>
+        <v>6307566</v>
       </c>
       <c r="K96">
         <f t="shared" si="10"/>
-        <v>-2771594</v>
+        <v>868240</v>
       </c>
       <c r="L96" s="1">
         <f t="shared" si="11"/>
-        <v>0.45938093163901028</v>
+        <v>0.13765056124660446</v>
       </c>
       <c r="P96">
         <f t="shared" si="12"/>
@@ -5926,19 +5926,19 @@
       </c>
       <c r="I97">
         <f t="shared" si="8"/>
-        <v>3254285</v>
+        <v>7159427</v>
       </c>
       <c r="J97">
         <f t="shared" si="9"/>
-        <v>6074508</v>
+        <v>6350622</v>
       </c>
       <c r="K97">
         <f t="shared" si="10"/>
-        <v>-2820223</v>
+        <v>808805</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" si="11"/>
-        <v>0.46427183897033308</v>
+        <v>0.12735839103634258</v>
       </c>
       <c r="P97">
         <f t="shared" si="12"/>
@@ -5970,19 +5970,19 @@
       </c>
       <c r="I98">
         <f t="shared" si="8"/>
-        <v>3260835</v>
+        <v>7173837</v>
       </c>
       <c r="J98">
         <f t="shared" si="9"/>
-        <v>6056424</v>
+        <v>6331716</v>
       </c>
       <c r="K98">
         <f t="shared" si="10"/>
-        <v>-2795589</v>
+        <v>842121</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" si="11"/>
-        <v>0.46159070104735073</v>
+        <v>0.13300043779600981</v>
       </c>
       <c r="P98">
         <f t="shared" si="12"/>
@@ -6014,19 +6014,19 @@
       </c>
       <c r="I99">
         <f t="shared" ref="I99:I130" si="14">(B99 + C99) * COST_BYTE</f>
-        <v>3260160</v>
+        <v>7172352</v>
       </c>
       <c r="J99">
         <f t="shared" ref="J99:J130" si="15">(F99 + G99) * COST_PARA</f>
-        <v>6041508</v>
+        <v>6316122</v>
       </c>
       <c r="K99">
         <f t="shared" si="10"/>
-        <v>-2781348</v>
+        <v>856230</v>
       </c>
       <c r="L99" s="1">
         <f t="shared" si="11"/>
-        <v>0.46037313862697854</v>
+        <v>0.1355626126284451</v>
       </c>
       <c r="P99">
         <f t="shared" si="12"/>
@@ -6058,19 +6058,19 @@
       </c>
       <c r="I100">
         <f t="shared" si="14"/>
-        <v>3262045</v>
+        <v>7176499</v>
       </c>
       <c r="J100">
         <f t="shared" si="15"/>
-        <v>6042432</v>
+        <v>6317088</v>
       </c>
       <c r="K100">
         <f t="shared" si="10"/>
-        <v>-2780387</v>
+        <v>859411</v>
       </c>
       <c r="L100" s="1">
         <f t="shared" si="11"/>
-        <v>0.46014369710738989</v>
+        <v>0.13604543739140565</v>
       </c>
       <c r="P100">
         <f t="shared" si="12"/>
@@ -6102,19 +6102,19 @@
       </c>
       <c r="I101">
         <f t="shared" si="14"/>
-        <v>3258485</v>
+        <v>7168667</v>
       </c>
       <c r="J101">
         <f t="shared" si="15"/>
-        <v>6043356</v>
+        <v>6318054</v>
       </c>
       <c r="K101">
         <f t="shared" si="10"/>
-        <v>-2784871</v>
+        <v>850613</v>
       </c>
       <c r="L101" s="1">
         <f t="shared" si="11"/>
-        <v>0.4608153151990384</v>
+        <v>0.13463211932028438</v>
       </c>
       <c r="P101">
         <f t="shared" si="12"/>
@@ -6146,19 +6146,19 @@
       </c>
       <c r="I102">
         <f t="shared" si="14"/>
-        <v>3261620</v>
+        <v>7175564</v>
       </c>
       <c r="J102">
         <f t="shared" si="15"/>
-        <v>6042960</v>
+        <v>6317640</v>
       </c>
       <c r="K102">
         <f t="shared" si="10"/>
-        <v>-2781340</v>
+        <v>857924</v>
       </c>
       <c r="L102" s="1">
         <f t="shared" si="11"/>
-        <v>0.46026119649972863</v>
+        <v>0.1357981778005711</v>
       </c>
       <c r="P102">
         <f t="shared" si="12"/>
@@ -6190,19 +6190,19 @@
       </c>
       <c r="I103">
         <f t="shared" si="14"/>
-        <v>3260410</v>
+        <v>7172902</v>
       </c>
       <c r="J103">
         <f t="shared" si="15"/>
-        <v>6037812</v>
+        <v>6312258</v>
       </c>
       <c r="K103">
         <f t="shared" si="10"/>
-        <v>-2777402</v>
+        <v>860644</v>
       </c>
       <c r="L103" s="1">
         <f t="shared" si="11"/>
-        <v>0.46000140448228599</v>
+        <v>0.13634487056771127</v>
       </c>
       <c r="P103">
         <f t="shared" si="12"/>
@@ -6234,19 +6234,19 @@
       </c>
       <c r="I104">
         <f t="shared" si="14"/>
-        <v>3258670</v>
+        <v>7169074</v>
       </c>
       <c r="J104">
         <f t="shared" si="15"/>
-        <v>6060912</v>
+        <v>6336408</v>
       </c>
       <c r="K104">
         <f t="shared" si="10"/>
-        <v>-2802242</v>
+        <v>832666</v>
       </c>
       <c r="L104" s="1">
         <f t="shared" si="11"/>
-        <v>0.46234659074409923</v>
+        <v>0.1314097829558955</v>
       </c>
       <c r="P104">
         <f t="shared" si="12"/>
@@ -6278,19 +6278,19 @@
       </c>
       <c r="I105">
         <f t="shared" si="14"/>
-        <v>3260710</v>
+        <v>7173562</v>
       </c>
       <c r="J105">
         <f t="shared" si="15"/>
-        <v>6024348</v>
+        <v>6298182</v>
       </c>
       <c r="K105">
         <f t="shared" si="10"/>
-        <v>-2763638</v>
+        <v>875380</v>
       </c>
       <c r="L105" s="1">
         <f t="shared" si="11"/>
-        <v>0.45874474714940106</v>
+        <v>0.13898931469430384</v>
       </c>
       <c r="P105">
         <f t="shared" si="12"/>
@@ -6322,19 +6322,19 @@
       </c>
       <c r="I106">
         <f t="shared" si="14"/>
-        <v>3255000</v>
+        <v>7161000</v>
       </c>
       <c r="J106">
         <f t="shared" si="15"/>
-        <v>6092064</v>
+        <v>6368976</v>
       </c>
       <c r="K106">
         <f t="shared" si="10"/>
-        <v>-2837064</v>
+        <v>792024</v>
       </c>
       <c r="L106" s="1">
         <f t="shared" si="11"/>
-        <v>0.46569832490269308</v>
+        <v>0.12435656846563718</v>
       </c>
       <c r="P106">
         <f t="shared" si="12"/>
@@ -6366,19 +6366,19 @@
       </c>
       <c r="I107">
         <f t="shared" si="14"/>
-        <v>3261625</v>
+        <v>7175575</v>
       </c>
       <c r="J107">
         <f t="shared" si="15"/>
-        <v>6043092</v>
+        <v>6317778</v>
       </c>
       <c r="K107">
         <f t="shared" si="10"/>
-        <v>-2781467</v>
+        <v>857797</v>
       </c>
       <c r="L107" s="1">
         <f t="shared" si="11"/>
-        <v>0.46027215868962446</v>
+        <v>0.13577510954009464</v>
       </c>
       <c r="P107">
         <f t="shared" si="12"/>
@@ -6410,19 +6410,19 @@
       </c>
       <c r="I108">
         <f t="shared" si="14"/>
-        <v>3256640</v>
+        <v>7164608</v>
       </c>
       <c r="J108">
         <f t="shared" si="15"/>
-        <v>6050088</v>
+        <v>6325092</v>
       </c>
       <c r="K108">
         <f t="shared" si="10"/>
-        <v>-2793448</v>
+        <v>839516</v>
       </c>
       <c r="L108" s="1">
         <f t="shared" si="11"/>
-        <v>0.46172022621819714</v>
+        <v>0.13272787178431555</v>
       </c>
       <c r="P108">
         <f t="shared" si="12"/>
@@ -6454,19 +6454,19 @@
       </c>
       <c r="I109">
         <f t="shared" si="14"/>
-        <v>3261625</v>
+        <v>7175575</v>
       </c>
       <c r="J109">
         <f t="shared" si="15"/>
-        <v>6056688</v>
+        <v>6331992</v>
       </c>
       <c r="K109">
         <f t="shared" si="10"/>
-        <v>-2795063</v>
+        <v>843583</v>
       </c>
       <c r="L109" s="1">
         <f t="shared" si="11"/>
-        <v>0.46148373500500606</v>
+        <v>0.13322553155468295</v>
       </c>
       <c r="P109">
         <f t="shared" si="12"/>
@@ -6498,19 +6498,19 @@
       </c>
       <c r="I110">
         <f t="shared" si="14"/>
-        <v>3259395</v>
+        <v>7170669</v>
       </c>
       <c r="J110">
         <f t="shared" si="15"/>
-        <v>6021444</v>
+        <v>6295146</v>
       </c>
       <c r="K110">
         <f t="shared" si="10"/>
-        <v>-2762049</v>
+        <v>875523</v>
       </c>
       <c r="L110" s="1">
         <f t="shared" si="11"/>
-        <v>0.45870209869924888</v>
+        <v>0.13907906186766755</v>
       </c>
       <c r="P110">
         <f t="shared" si="12"/>
@@ -6542,19 +6542,19 @@
       </c>
       <c r="I111">
         <f t="shared" si="14"/>
-        <v>3259040</v>
+        <v>7169888</v>
       </c>
       <c r="J111">
         <f t="shared" si="15"/>
-        <v>6072264</v>
+        <v>6348276</v>
       </c>
       <c r="K111">
         <f t="shared" si="10"/>
-        <v>-2813224</v>
+        <v>821612</v>
       </c>
       <c r="L111" s="1">
         <f t="shared" si="11"/>
-        <v>0.46329079236344139</v>
+        <v>0.12942285433084511</v>
       </c>
       <c r="P111">
         <f t="shared" si="12"/>
@@ -6586,19 +6586,19 @@
       </c>
       <c r="I112">
         <f t="shared" si="14"/>
-        <v>3261000</v>
+        <v>7174200</v>
       </c>
       <c r="J112">
         <f t="shared" si="15"/>
-        <v>6020784</v>
+        <v>6294456</v>
       </c>
       <c r="K112">
         <f t="shared" si="10"/>
-        <v>-2759784</v>
+        <v>879744</v>
       </c>
       <c r="L112" s="1">
         <f t="shared" si="11"/>
-        <v>0.4583761848955219</v>
+        <v>0.13976489787203214</v>
       </c>
       <c r="P112">
         <f t="shared" si="12"/>
@@ -6630,19 +6630,19 @@
       </c>
       <c r="I113">
         <f t="shared" si="14"/>
-        <v>3259150</v>
+        <v>7170130</v>
       </c>
       <c r="J113">
         <f t="shared" si="15"/>
-        <v>6061836</v>
+        <v>6337374</v>
       </c>
       <c r="K113">
         <f t="shared" si="10"/>
-        <v>-2802686</v>
+        <v>832756</v>
       </c>
       <c r="L113" s="1">
         <f t="shared" si="11"/>
-        <v>0.46234936082071504</v>
+        <v>0.13140395375119096</v>
       </c>
       <c r="P113">
         <f t="shared" si="12"/>
@@ -6674,19 +6674,19 @@
       </c>
       <c r="I114">
         <f t="shared" si="14"/>
-        <v>3261385</v>
+        <v>7175047</v>
       </c>
       <c r="J114">
         <f t="shared" si="15"/>
-        <v>6025932</v>
+        <v>6299838</v>
       </c>
       <c r="K114">
         <f t="shared" si="10"/>
-        <v>-2764547</v>
+        <v>875209</v>
       </c>
       <c r="L114" s="1">
         <f t="shared" si="11"/>
-        <v>0.45877500774983854</v>
+        <v>0.13892563586555717</v>
       </c>
       <c r="P114">
         <f t="shared" si="12"/>
@@ -6718,19 +6718,19 @@
       </c>
       <c r="I115">
         <f t="shared" si="14"/>
-        <v>3256660</v>
+        <v>7164652</v>
       </c>
       <c r="J115">
         <f t="shared" si="15"/>
-        <v>6063684</v>
+        <v>6339306</v>
       </c>
       <c r="K115">
         <f t="shared" si="10"/>
-        <v>-2807024</v>
+        <v>825346</v>
       </c>
       <c r="L115" s="1">
         <f t="shared" si="11"/>
-        <v>0.46292385948872006</v>
+        <v>0.13019500872808473</v>
       </c>
       <c r="P115">
         <f t="shared" si="12"/>
@@ -6762,19 +6762,19 @@
       </c>
       <c r="I116">
         <f t="shared" si="14"/>
-        <v>3261655</v>
+        <v>7175641</v>
       </c>
       <c r="J116">
         <f t="shared" si="15"/>
-        <v>6048636</v>
+        <v>6323574</v>
       </c>
       <c r="K116">
         <f t="shared" si="10"/>
-        <v>-2786981</v>
+        <v>852067</v>
       </c>
       <c r="L116" s="1">
         <f t="shared" si="11"/>
-        <v>0.46076189739306517</v>
+        <v>0.13474452896415856</v>
       </c>
       <c r="P116">
         <f t="shared" si="12"/>
@@ -6806,19 +6806,19 @@
       </c>
       <c r="I117">
         <f t="shared" si="14"/>
-        <v>3259845</v>
+        <v>7171659</v>
       </c>
       <c r="J117">
         <f t="shared" si="15"/>
-        <v>6025800</v>
+        <v>6299700</v>
       </c>
       <c r="K117">
         <f t="shared" si="10"/>
-        <v>-2765955</v>
+        <v>871959</v>
       </c>
       <c r="L117" s="1">
         <f t="shared" si="11"/>
-        <v>0.45901871950612366</v>
+        <v>0.13841278156102671</v>
       </c>
       <c r="P117">
         <f t="shared" si="12"/>
@@ -6850,19 +6850,19 @@
       </c>
       <c r="I118">
         <f t="shared" si="14"/>
-        <v>3256210</v>
+        <v>7163662</v>
       </c>
       <c r="J118">
         <f t="shared" si="15"/>
-        <v>6078204</v>
+        <v>6354486</v>
       </c>
       <c r="K118">
         <f t="shared" si="10"/>
-        <v>-2821994</v>
+        <v>809176</v>
       </c>
       <c r="L118" s="1">
         <f t="shared" si="11"/>
-        <v>0.46428089613313406</v>
+        <v>0.1273393316154918</v>
       </c>
       <c r="P118">
         <f t="shared" si="12"/>
@@ -6894,19 +6894,19 @@
       </c>
       <c r="I119">
         <f t="shared" si="14"/>
-        <v>3261780</v>
+        <v>7175916</v>
       </c>
       <c r="J119">
         <f t="shared" si="15"/>
-        <v>6021576</v>
+        <v>6295284</v>
       </c>
       <c r="K119">
         <f t="shared" si="10"/>
-        <v>-2759796</v>
+        <v>880632</v>
       </c>
       <c r="L119" s="1">
         <f t="shared" si="11"/>
-        <v>0.45831788887161767</v>
+        <v>0.13988757298320456</v>
       </c>
       <c r="P119">
         <f t="shared" si="12"/>
@@ -6938,19 +6938,19 @@
       </c>
       <c r="I120">
         <f t="shared" si="14"/>
-        <v>3258545</v>
+        <v>7168799</v>
       </c>
       <c r="J120">
         <f t="shared" si="15"/>
-        <v>6062232</v>
+        <v>6337788</v>
       </c>
       <c r="K120">
         <f t="shared" si="10"/>
-        <v>-2803687</v>
+        <v>831011</v>
       </c>
       <c r="L120" s="1">
         <f t="shared" si="11"/>
-        <v>0.46248427971743739</v>
+        <v>0.13112003746417519</v>
       </c>
       <c r="P120">
         <f t="shared" si="12"/>
@@ -6982,19 +6982,19 @@
       </c>
       <c r="I121">
         <f t="shared" si="14"/>
-        <v>3261440</v>
+        <v>7175168</v>
       </c>
       <c r="J121">
         <f t="shared" si="15"/>
-        <v>6036756</v>
+        <v>6311154</v>
       </c>
       <c r="K121">
         <f t="shared" si="10"/>
-        <v>-2775316</v>
+        <v>864014</v>
       </c>
       <c r="L121" s="1">
         <f t="shared" si="11"/>
-        <v>0.45973632195834979</v>
+        <v>0.13690269640068994</v>
       </c>
       <c r="P121">
         <f t="shared" si="12"/>
@@ -7026,19 +7026,19 @@
       </c>
       <c r="I122">
         <f t="shared" si="14"/>
-        <v>3256895</v>
+        <v>7165169</v>
       </c>
       <c r="J122">
         <f t="shared" si="15"/>
-        <v>6039924</v>
+        <v>6314466</v>
       </c>
       <c r="K122">
         <f t="shared" si="10"/>
-        <v>-2783029</v>
+        <v>850703</v>
       </c>
       <c r="L122" s="1">
         <f t="shared" si="11"/>
-        <v>0.46077218852422647</v>
+        <v>0.13472287284467127</v>
       </c>
       <c r="P122">
         <f t="shared" si="12"/>
@@ -7070,19 +7070,19 @@
       </c>
       <c r="I123">
         <f t="shared" si="14"/>
-        <v>3259485</v>
+        <v>7170867</v>
       </c>
       <c r="J123">
         <f t="shared" si="15"/>
-        <v>6064476</v>
+        <v>6340134</v>
       </c>
       <c r="K123">
         <f t="shared" si="10"/>
-        <v>-2804991</v>
+        <v>830733</v>
       </c>
       <c r="L123" s="1">
         <f t="shared" si="11"/>
-        <v>0.46252817226088455</v>
+        <v>0.13102767228579079</v>
       </c>
       <c r="P123">
         <f t="shared" si="12"/>
@@ -7114,19 +7114,19 @@
       </c>
       <c r="I124">
         <f t="shared" si="14"/>
-        <v>3260860</v>
+        <v>7173892</v>
       </c>
       <c r="J124">
         <f t="shared" si="15"/>
-        <v>6019860</v>
+        <v>6293490</v>
       </c>
       <c r="K124">
         <f t="shared" si="10"/>
-        <v>-2759000</v>
+        <v>880402</v>
       </c>
       <c r="L124" s="1">
         <f t="shared" si="11"/>
-        <v>0.45831630635928411</v>
+        <v>0.13989090313959346</v>
       </c>
       <c r="P124">
         <f t="shared" si="12"/>
@@ -7158,19 +7158,19 @@
       </c>
       <c r="I125">
         <f t="shared" si="14"/>
-        <v>3253695</v>
+        <v>7158129</v>
       </c>
       <c r="J125">
         <f t="shared" si="15"/>
-        <v>6085860</v>
+        <v>6362490</v>
       </c>
       <c r="K125">
         <f t="shared" si="10"/>
-        <v>-2832165</v>
+        <v>795639</v>
       </c>
       <c r="L125" s="1">
         <f t="shared" si="11"/>
-        <v>0.46536808273604718</v>
+        <v>0.12505151285110075</v>
       </c>
       <c r="P125">
         <f t="shared" si="12"/>
@@ -7202,19 +7202,19 @@
       </c>
       <c r="I126">
         <f t="shared" si="14"/>
-        <v>3261565</v>
+        <v>7175443</v>
       </c>
       <c r="J126">
         <f t="shared" si="15"/>
-        <v>6040980</v>
+        <v>6315570</v>
       </c>
       <c r="K126">
         <f t="shared" si="10"/>
-        <v>-2779415</v>
+        <v>859873</v>
       </c>
       <c r="L126" s="1">
         <f t="shared" si="11"/>
-        <v>0.46009339544246131</v>
+        <v>0.1361512895906466</v>
       </c>
       <c r="P126">
         <f t="shared" si="12"/>
@@ -7246,19 +7246,19 @@
       </c>
       <c r="I127">
         <f t="shared" si="14"/>
-        <v>3261510</v>
+        <v>7175322</v>
       </c>
       <c r="J127">
         <f t="shared" si="15"/>
-        <v>6016560</v>
+        <v>6290040</v>
       </c>
       <c r="K127">
         <f t="shared" si="10"/>
-        <v>-2755050</v>
+        <v>885282</v>
       </c>
       <c r="L127" s="1">
         <f t="shared" si="11"/>
-        <v>0.45791116518409192</v>
+        <v>0.14074346109086747</v>
       </c>
       <c r="P127">
         <f t="shared" si="12"/>
@@ -7290,19 +7290,19 @@
       </c>
       <c r="I128">
         <f t="shared" si="14"/>
-        <v>3259610</v>
+        <v>7171142</v>
       </c>
       <c r="J128">
         <f t="shared" si="15"/>
-        <v>6057612</v>
+        <v>6332958</v>
       </c>
       <c r="K128">
         <f t="shared" si="10"/>
-        <v>-2798002</v>
+        <v>838184</v>
       </c>
       <c r="L128" s="1">
         <f t="shared" si="11"/>
-        <v>0.4618985171054204</v>
+        <v>0.13235268574337616</v>
       </c>
       <c r="P128">
         <f t="shared" si="12"/>
@@ -7334,19 +7334,19 @@
       </c>
       <c r="I129">
         <f t="shared" si="14"/>
-        <v>3261630</v>
+        <v>7175586</v>
       </c>
       <c r="J129">
         <f t="shared" si="15"/>
-        <v>6008376</v>
+        <v>6281484</v>
       </c>
       <c r="K129">
         <f t="shared" si="10"/>
-        <v>-2746746</v>
+        <v>894102</v>
       </c>
       <c r="L129" s="1">
         <f t="shared" si="11"/>
-        <v>0.45715281467071966</v>
+        <v>0.14233929434509424</v>
       </c>
       <c r="P129">
         <f t="shared" si="12"/>
@@ -7378,19 +7378,19 @@
       </c>
       <c r="I130">
         <f t="shared" si="14"/>
-        <v>3253405</v>
+        <v>7157491</v>
       </c>
       <c r="J130">
         <f t="shared" si="15"/>
-        <v>6084804</v>
+        <v>6361386</v>
       </c>
       <c r="K130">
         <f t="shared" si="10"/>
-        <v>-2831399</v>
+        <v>796105</v>
       </c>
       <c r="L130" s="1">
         <f t="shared" si="11"/>
-        <v>0.46532295863597251</v>
+        <v>0.125146469652997</v>
       </c>
       <c r="P130">
         <f t="shared" si="12"/>
@@ -7422,19 +7422,19 @@
       </c>
       <c r="I131">
         <f t="shared" ref="I131:I162" si="16">(B131 + C131) * COST_BYTE</f>
-        <v>3261530</v>
+        <v>7175366</v>
       </c>
       <c r="J131">
         <f t="shared" ref="J131:J162" si="17">(F131 + G131) * COST_PARA</f>
-        <v>6046788</v>
+        <v>6321642</v>
       </c>
       <c r="K131">
         <f t="shared" si="10"/>
-        <v>-2785258</v>
+        <v>853724</v>
       </c>
       <c r="L131" s="1">
         <f t="shared" si="11"/>
-        <v>0.46061776930165238</v>
+        <v>0.13504782460000109</v>
       </c>
       <c r="P131">
         <f t="shared" si="12"/>
@@ -7466,19 +7466,19 @@
       </c>
       <c r="I132">
         <f t="shared" si="16"/>
-        <v>3261180</v>
+        <v>7174596</v>
       </c>
       <c r="J132">
         <f t="shared" si="17"/>
-        <v>6010620</v>
+        <v>6283830</v>
       </c>
       <c r="K132">
         <f t="shared" ref="K132:K184" si="18">I132 - J132</f>
-        <v>-2749440</v>
+        <v>890766</v>
       </c>
       <c r="L132" s="1">
         <f t="shared" ref="L132:L184" si="19">ABS(K132) / J132</f>
-        <v>0.45743034828353812</v>
+        <v>0.14175526709029365</v>
       </c>
       <c r="P132">
         <f t="shared" ref="P132:P184" si="20">D132 + E132</f>
@@ -7510,19 +7510,19 @@
       </c>
       <c r="I133">
         <f t="shared" si="16"/>
-        <v>3260520</v>
+        <v>7173144</v>
       </c>
       <c r="J133">
         <f t="shared" si="17"/>
-        <v>6051276</v>
+        <v>6326334</v>
       </c>
       <c r="K133">
         <f t="shared" si="18"/>
-        <v>-2790756</v>
+        <v>846810</v>
       </c>
       <c r="L133" s="1">
         <f t="shared" si="19"/>
-        <v>0.46118471542200357</v>
+        <v>0.13385477276413166</v>
       </c>
       <c r="P133">
         <f t="shared" si="20"/>
@@ -7554,19 +7554,19 @@
       </c>
       <c r="I134">
         <f t="shared" si="16"/>
-        <v>3260530</v>
+        <v>7173166</v>
       </c>
       <c r="J134">
         <f t="shared" si="17"/>
-        <v>6021048</v>
+        <v>6294732</v>
       </c>
       <c r="K134">
         <f t="shared" si="18"/>
-        <v>-2760518</v>
+        <v>878434</v>
       </c>
       <c r="L134" s="1">
         <f t="shared" si="19"/>
-        <v>0.45847799253551874</v>
+        <v>0.1395506591861258</v>
       </c>
       <c r="P134">
         <f t="shared" si="20"/>
@@ -7598,19 +7598,19 @@
       </c>
       <c r="I135">
         <f t="shared" si="16"/>
-        <v>3257085</v>
+        <v>7165587</v>
       </c>
       <c r="J135">
         <f t="shared" si="17"/>
-        <v>6066720</v>
+        <v>6342480</v>
       </c>
       <c r="K135">
         <f t="shared" si="18"/>
-        <v>-2809635</v>
+        <v>823107</v>
       </c>
       <c r="L135" s="1">
         <f t="shared" si="19"/>
-        <v>0.46312257694437853</v>
+        <v>0.12977683808226434</v>
       </c>
       <c r="P135">
         <f t="shared" si="20"/>
@@ -7642,19 +7642,19 @@
       </c>
       <c r="I136">
         <f t="shared" si="16"/>
-        <v>3261160</v>
+        <v>7174552</v>
       </c>
       <c r="J136">
         <f t="shared" si="17"/>
-        <v>6045336</v>
+        <v>6320124</v>
       </c>
       <c r="K136">
         <f t="shared" si="18"/>
-        <v>-2784176</v>
+        <v>854428</v>
       </c>
       <c r="L136" s="1">
         <f t="shared" si="19"/>
-        <v>0.46054942190144599</v>
+        <v>0.13519165130304406</v>
       </c>
       <c r="P136">
         <f t="shared" si="20"/>
@@ -7686,19 +7686,19 @@
       </c>
       <c r="I137">
         <f t="shared" si="16"/>
-        <v>3261490</v>
+        <v>7175278</v>
       </c>
       <c r="J137">
         <f t="shared" si="17"/>
-        <v>5995836</v>
+        <v>6268374</v>
       </c>
       <c r="K137">
         <f t="shared" si="18"/>
-        <v>-2734346</v>
+        <v>906904</v>
       </c>
       <c r="L137" s="1">
         <f t="shared" si="19"/>
-        <v>0.45604082566634579</v>
+        <v>0.14467930598908105</v>
       </c>
       <c r="P137">
         <f t="shared" si="20"/>
@@ -7730,19 +7730,19 @@
       </c>
       <c r="I138">
         <f t="shared" si="16"/>
-        <v>3258260</v>
+        <v>7168172</v>
       </c>
       <c r="J138">
         <f t="shared" si="17"/>
-        <v>6078600</v>
+        <v>6354900</v>
       </c>
       <c r="K138">
         <f t="shared" si="18"/>
-        <v>-2820340</v>
+        <v>813272</v>
       </c>
       <c r="L138" s="1">
         <f t="shared" si="19"/>
-        <v>0.46397854769190272</v>
+        <v>0.12797557790051772</v>
       </c>
       <c r="P138">
         <f t="shared" si="20"/>
@@ -7774,19 +7774,19 @@
       </c>
       <c r="I139">
         <f t="shared" si="16"/>
-        <v>3261405</v>
+        <v>7175091</v>
       </c>
       <c r="J139">
         <f t="shared" si="17"/>
-        <v>6018276</v>
+        <v>6291834</v>
       </c>
       <c r="K139">
         <f t="shared" si="18"/>
-        <v>-2756871</v>
+        <v>883257</v>
       </c>
       <c r="L139" s="1">
         <f t="shared" si="19"/>
-        <v>0.45808317863786907</v>
+        <v>0.14038148495335381</v>
       </c>
       <c r="P139">
         <f t="shared" si="20"/>
@@ -7818,19 +7818,19 @@
       </c>
       <c r="I140">
         <f t="shared" si="16"/>
-        <v>3256830</v>
+        <v>7165026</v>
       </c>
       <c r="J140">
         <f t="shared" si="17"/>
-        <v>6063420</v>
+        <v>6339030</v>
       </c>
       <c r="K140">
         <f t="shared" si="18"/>
-        <v>-2806590</v>
+        <v>825996</v>
       </c>
       <c r="L140" s="1">
         <f t="shared" si="19"/>
-        <v>0.46287243832688485</v>
+        <v>0.13030321673820758</v>
       </c>
       <c r="P140">
         <f t="shared" si="20"/>
@@ -7862,19 +7862,19 @@
       </c>
       <c r="I141">
         <f t="shared" si="16"/>
-        <v>3261025</v>
+        <v>7174255</v>
       </c>
       <c r="J141">
         <f t="shared" si="17"/>
-        <v>6042168</v>
+        <v>6316812</v>
       </c>
       <c r="K141">
         <f t="shared" si="18"/>
-        <v>-2781143</v>
+        <v>857443</v>
       </c>
       <c r="L141" s="1">
         <f t="shared" si="19"/>
-        <v>0.46028892278400735</v>
+        <v>0.1357398320545237</v>
       </c>
       <c r="P141">
         <f t="shared" si="20"/>
@@ -7906,19 +7906,19 @@
       </c>
       <c r="I142">
         <f t="shared" si="16"/>
-        <v>3261135</v>
+        <v>7174497</v>
       </c>
       <c r="J142">
         <f t="shared" si="17"/>
-        <v>6001776</v>
+        <v>6274584</v>
       </c>
       <c r="K142">
         <f t="shared" si="18"/>
-        <v>-2740641</v>
+        <v>899913</v>
       </c>
       <c r="L142" s="1">
         <f t="shared" si="19"/>
-        <v>0.45663833505282436</v>
+        <v>0.14342193841057829</v>
       </c>
       <c r="P142">
         <f t="shared" si="20"/>
@@ -7950,19 +7950,19 @@
       </c>
       <c r="I143">
         <f t="shared" si="16"/>
-        <v>3254905</v>
+        <v>7160791</v>
       </c>
       <c r="J143">
         <f t="shared" si="17"/>
-        <v>6087972</v>
+        <v>6364698</v>
       </c>
       <c r="K143">
         <f t="shared" si="18"/>
-        <v>-2833067</v>
+        <v>796093</v>
       </c>
       <c r="L143" s="1">
         <f t="shared" si="19"/>
-        <v>0.46535480123758782</v>
+        <v>0.12507946174351084</v>
       </c>
       <c r="P143">
         <f t="shared" si="20"/>
@@ -7994,19 +7994,19 @@
       </c>
       <c r="I144">
         <f t="shared" si="16"/>
-        <v>3261260</v>
+        <v>7174772</v>
       </c>
       <c r="J144">
         <f t="shared" si="17"/>
-        <v>6054048</v>
+        <v>6329232</v>
       </c>
       <c r="K144">
         <f t="shared" si="18"/>
-        <v>-2792788</v>
+        <v>845540</v>
       </c>
       <c r="L144" s="1">
         <f t="shared" si="19"/>
-        <v>0.46130919345205057</v>
+        <v>0.13359282769220657</v>
       </c>
       <c r="P144">
         <f t="shared" si="20"/>
@@ -8038,19 +8038,19 @@
       </c>
       <c r="I145">
         <f t="shared" si="16"/>
-        <v>3261035</v>
+        <v>7174277</v>
       </c>
       <c r="J145">
         <f t="shared" si="17"/>
-        <v>6003228</v>
+        <v>6276102</v>
       </c>
       <c r="K145">
         <f t="shared" si="18"/>
-        <v>-2742193</v>
+        <v>898175</v>
       </c>
       <c r="L145" s="1">
         <f t="shared" si="19"/>
-        <v>0.45678641557508726</v>
+        <v>0.14311032548546854</v>
       </c>
       <c r="P145">
         <f t="shared" si="20"/>
@@ -8082,19 +8082,19 @@
       </c>
       <c r="I146">
         <f t="shared" si="16"/>
-        <v>3258690</v>
+        <v>7169118</v>
       </c>
       <c r="J146">
         <f t="shared" si="17"/>
-        <v>6073716</v>
+        <v>6349794</v>
       </c>
       <c r="K146">
         <f t="shared" si="18"/>
-        <v>-2815026</v>
+        <v>819324</v>
       </c>
       <c r="L146" s="1">
         <f t="shared" si="19"/>
-        <v>0.46347672495717612</v>
+        <v>0.12903158748142066</v>
       </c>
       <c r="P146">
         <f t="shared" si="20"/>
@@ -8126,19 +8126,19 @@
       </c>
       <c r="I147">
         <f t="shared" si="16"/>
-        <v>3260685</v>
+        <v>7173507</v>
       </c>
       <c r="J147">
         <f t="shared" si="17"/>
-        <v>6013656</v>
+        <v>6287004</v>
       </c>
       <c r="K147">
         <f t="shared" si="18"/>
-        <v>-2752971</v>
+        <v>886503</v>
       </c>
       <c r="L147" s="1">
         <f t="shared" si="19"/>
-        <v>0.45778657774904319</v>
+        <v>0.14100563638897001</v>
       </c>
       <c r="P147">
         <f t="shared" si="20"/>
@@ -8170,19 +8170,19 @@
       </c>
       <c r="I148">
         <f t="shared" si="16"/>
-        <v>3259865</v>
+        <v>7171703</v>
       </c>
       <c r="J148">
         <f t="shared" si="17"/>
-        <v>6047712</v>
+        <v>6322608</v>
       </c>
       <c r="K148">
         <f t="shared" si="18"/>
-        <v>-2787847</v>
+        <v>849095</v>
       </c>
       <c r="L148" s="1">
         <f t="shared" si="19"/>
-        <v>0.46097548957357759</v>
+        <v>0.13429505672342806</v>
       </c>
       <c r="P148">
         <f t="shared" si="20"/>
@@ -8214,19 +8214,19 @@
       </c>
       <c r="I149">
         <f t="shared" si="16"/>
-        <v>3261555</v>
+        <v>7175421</v>
       </c>
       <c r="J149">
         <f t="shared" si="17"/>
-        <v>6050352</v>
+        <v>6325368</v>
       </c>
       <c r="K149">
         <f t="shared" si="18"/>
-        <v>-2788797</v>
+        <v>850053</v>
       </c>
       <c r="L149" s="1">
         <f t="shared" si="19"/>
-        <v>0.46093136399336765</v>
+        <v>0.13438791229221761</v>
       </c>
       <c r="P149">
         <f t="shared" si="20"/>
@@ -8258,19 +8258,19 @@
       </c>
       <c r="I150">
         <f t="shared" si="16"/>
-        <v>3261910</v>
+        <v>7176202</v>
       </c>
       <c r="J150">
         <f t="shared" si="17"/>
-        <v>5981448</v>
+        <v>6253332</v>
       </c>
       <c r="K150">
         <f t="shared" si="18"/>
-        <v>-2719538</v>
+        <v>922870</v>
       </c>
       <c r="L150" s="1">
         <f t="shared" si="19"/>
-        <v>0.45466214869710481</v>
+        <v>0.14758052187217952</v>
       </c>
       <c r="P150">
         <f t="shared" si="20"/>
@@ -8302,19 +8302,19 @@
       </c>
       <c r="I151">
         <f t="shared" si="16"/>
-        <v>3258270</v>
+        <v>7168194</v>
       </c>
       <c r="J151">
         <f t="shared" si="17"/>
-        <v>6083088</v>
+        <v>6359592</v>
       </c>
       <c r="K151">
         <f t="shared" si="18"/>
-        <v>-2824818</v>
+        <v>808602</v>
       </c>
       <c r="L151" s="1">
         <f t="shared" si="19"/>
-        <v>0.46437237140084114</v>
+        <v>0.12714683583475167</v>
       </c>
       <c r="P151">
         <f t="shared" si="20"/>
@@ -8346,19 +8346,19 @@
       </c>
       <c r="I152">
         <f t="shared" si="16"/>
-        <v>3260875</v>
+        <v>7173925</v>
       </c>
       <c r="J152">
         <f t="shared" si="17"/>
-        <v>6011544</v>
+        <v>6284796</v>
       </c>
       <c r="K152">
         <f t="shared" si="18"/>
-        <v>-2750669</v>
+        <v>889129</v>
       </c>
       <c r="L152" s="1">
         <f t="shared" si="19"/>
-        <v>0.45756447927520782</v>
+        <v>0.14147300882956265</v>
       </c>
       <c r="P152">
         <f t="shared" si="20"/>
@@ -8390,19 +8390,19 @@
       </c>
       <c r="I153">
         <f t="shared" si="16"/>
-        <v>3257360</v>
+        <v>7166192</v>
       </c>
       <c r="J153">
         <f t="shared" si="17"/>
-        <v>6048372</v>
+        <v>6323298</v>
       </c>
       <c r="K153">
         <f t="shared" si="18"/>
-        <v>-2791012</v>
+        <v>842894</v>
       </c>
       <c r="L153" s="1">
         <f t="shared" si="19"/>
-        <v>0.46144846910871223</v>
+        <v>0.13329974326688382</v>
       </c>
       <c r="P153">
         <f t="shared" si="20"/>
@@ -8434,19 +8434,19 @@
       </c>
       <c r="I154">
         <f t="shared" si="16"/>
-        <v>3256010</v>
+        <v>7163222</v>
       </c>
       <c r="J154">
         <f t="shared" si="17"/>
-        <v>6070944</v>
+        <v>6346896</v>
       </c>
       <c r="K154">
         <f t="shared" si="18"/>
-        <v>-2814934</v>
+        <v>816326</v>
       </c>
       <c r="L154" s="1">
         <f t="shared" si="19"/>
-        <v>0.46367319481121883</v>
+        <v>0.12861814657117432</v>
       </c>
       <c r="P154">
         <f t="shared" si="20"/>
@@ -8478,19 +8478,19 @@
       </c>
       <c r="I155">
         <f t="shared" si="16"/>
-        <v>3261025</v>
+        <v>7174255</v>
       </c>
       <c r="J155">
         <f t="shared" si="17"/>
-        <v>6040452</v>
+        <v>6315018</v>
       </c>
       <c r="K155">
         <f t="shared" si="18"/>
-        <v>-2779427</v>
+        <v>859237</v>
       </c>
       <c r="L155" s="1">
         <f t="shared" si="19"/>
-        <v>0.46013559912403906</v>
+        <v>0.13606247836506563</v>
       </c>
       <c r="P155">
         <f t="shared" si="20"/>
@@ -8522,19 +8522,19 @@
       </c>
       <c r="I156">
         <f t="shared" si="16"/>
-        <v>3259960</v>
+        <v>7171912</v>
       </c>
       <c r="J156">
         <f t="shared" si="17"/>
-        <v>6020916</v>
+        <v>6294594</v>
       </c>
       <c r="K156">
         <f t="shared" si="18"/>
-        <v>-2760956</v>
+        <v>877318</v>
       </c>
       <c r="L156" s="1">
         <f t="shared" si="19"/>
-        <v>0.4585607904179364</v>
+        <v>0.13937642364225555</v>
       </c>
       <c r="P156">
         <f t="shared" si="20"/>
@@ -8566,19 +8566,19 @@
       </c>
       <c r="I157">
         <f t="shared" si="16"/>
-        <v>3255885</v>
+        <v>7162947</v>
       </c>
       <c r="J157">
         <f t="shared" si="17"/>
-        <v>6081768</v>
+        <v>6358212</v>
       </c>
       <c r="K157">
         <f t="shared" si="18"/>
-        <v>-2825883</v>
+        <v>804735</v>
       </c>
       <c r="L157" s="1">
         <f t="shared" si="19"/>
-        <v>0.46464827333104453</v>
+        <v>0.12656624220771501</v>
       </c>
       <c r="P157">
         <f t="shared" si="20"/>
@@ -8610,19 +8610,19 @@
       </c>
       <c r="I158">
         <f t="shared" si="16"/>
-        <v>3261555</v>
+        <v>7175421</v>
       </c>
       <c r="J158">
         <f t="shared" si="17"/>
-        <v>6023028</v>
+        <v>6296802</v>
       </c>
       <c r="K158">
         <f t="shared" si="18"/>
-        <v>-2761473</v>
+        <v>878619</v>
       </c>
       <c r="L158" s="1">
         <f t="shared" si="19"/>
-        <v>0.45848583137916676</v>
+        <v>0.13953416353253603</v>
       </c>
       <c r="P158">
         <f t="shared" si="20"/>
@@ -8654,19 +8654,19 @@
       </c>
       <c r="I159">
         <f t="shared" si="16"/>
-        <v>3258095</v>
+        <v>7167809</v>
       </c>
       <c r="J159">
         <f t="shared" si="17"/>
-        <v>6036888</v>
+        <v>6311292</v>
       </c>
       <c r="K159">
         <f t="shared" si="18"/>
-        <v>-2778793</v>
+        <v>856517</v>
       </c>
       <c r="L159" s="1">
         <f t="shared" si="19"/>
-        <v>0.46030222856544628</v>
+        <v>0.13571183206227821</v>
       </c>
       <c r="P159">
         <f t="shared" si="20"/>
@@ -8698,19 +8698,19 @@
       </c>
       <c r="I160">
         <f t="shared" si="16"/>
-        <v>3261150</v>
+        <v>7174530</v>
       </c>
       <c r="J160">
         <f t="shared" si="17"/>
-        <v>6044544</v>
+        <v>6319296</v>
       </c>
       <c r="K160">
         <f t="shared" si="18"/>
-        <v>-2783394</v>
+        <v>855234</v>
       </c>
       <c r="L160" s="1">
         <f t="shared" si="19"/>
-        <v>0.46048039355822373</v>
+        <v>0.1353369109470422</v>
       </c>
       <c r="P160">
         <f t="shared" si="20"/>
@@ -8742,19 +8742,19 @@
       </c>
       <c r="I161">
         <f t="shared" si="16"/>
-        <v>3260875</v>
+        <v>7173925</v>
       </c>
       <c r="J161">
         <f t="shared" si="17"/>
-        <v>6007188</v>
+        <v>6280242</v>
       </c>
       <c r="K161">
         <f t="shared" si="18"/>
-        <v>-2746313</v>
+        <v>893683</v>
       </c>
       <c r="L161" s="1">
         <f t="shared" si="19"/>
-        <v>0.45717114230485212</v>
+        <v>0.14230072662805032</v>
       </c>
       <c r="P161">
         <f t="shared" si="20"/>
@@ -8786,19 +8786,19 @@
       </c>
       <c r="I162">
         <f t="shared" si="16"/>
-        <v>3255855</v>
+        <v>7162881</v>
       </c>
       <c r="J162">
         <f t="shared" si="17"/>
-        <v>6068436</v>
+        <v>6344274</v>
       </c>
       <c r="K162">
         <f t="shared" si="18"/>
-        <v>-2812581</v>
+        <v>818607</v>
       </c>
       <c r="L162" s="1">
         <f t="shared" si="19"/>
-        <v>0.46347708042072128</v>
+        <v>0.12903083946248223</v>
       </c>
       <c r="P162">
         <f t="shared" si="20"/>
@@ -8830,19 +8830,19 @@
       </c>
       <c r="I163">
         <f t="shared" ref="I163:I184" si="22">(B163 + C163) * COST_BYTE</f>
-        <v>3261045</v>
+        <v>7174299</v>
       </c>
       <c r="J163">
         <f t="shared" ref="J163:J184" si="23">(F163 + G163) * COST_PARA</f>
-        <v>6047976</v>
+        <v>6322884</v>
       </c>
       <c r="K163">
         <f t="shared" si="18"/>
-        <v>-2786931</v>
+        <v>851415</v>
       </c>
       <c r="L163" s="1">
         <f t="shared" si="19"/>
-        <v>0.46080391192028541</v>
+        <v>0.13465611578513856</v>
       </c>
       <c r="P163">
         <f t="shared" si="20"/>
@@ -8874,19 +8874,19 @@
       </c>
       <c r="I164">
         <f t="shared" si="22"/>
-        <v>3260795</v>
+        <v>7173749</v>
       </c>
       <c r="J164">
         <f t="shared" si="23"/>
-        <v>6005604</v>
+        <v>6278586</v>
       </c>
       <c r="K164">
         <f t="shared" si="18"/>
-        <v>-2744809</v>
+        <v>895163</v>
       </c>
       <c r="L164" s="1">
         <f t="shared" si="19"/>
-        <v>0.45704129010171168</v>
+        <v>0.14257398082944153</v>
       </c>
       <c r="P164">
         <f t="shared" si="20"/>
@@ -8918,19 +8918,19 @@
       </c>
       <c r="I165">
         <f t="shared" si="22"/>
-        <v>3258905</v>
+        <v>7169591</v>
       </c>
       <c r="J165">
         <f t="shared" si="23"/>
-        <v>6046524</v>
+        <v>6321366</v>
       </c>
       <c r="K165">
         <f t="shared" si="18"/>
-        <v>-2787619</v>
+        <v>848225</v>
       </c>
       <c r="L165" s="1">
         <f t="shared" si="19"/>
-        <v>0.46102835281890886</v>
+        <v>0.13418381406803528</v>
       </c>
       <c r="P165">
         <f t="shared" si="20"/>
@@ -8962,19 +8962,19 @@
       </c>
       <c r="I166">
         <f t="shared" si="22"/>
-        <v>3261760</v>
+        <v>7175872</v>
       </c>
       <c r="J166">
         <f t="shared" si="23"/>
-        <v>6047844</v>
+        <v>6322746</v>
       </c>
       <c r="K166">
         <f t="shared" si="18"/>
-        <v>-2786084</v>
+        <v>853126</v>
       </c>
       <c r="L166" s="1">
         <f t="shared" si="19"/>
-        <v>0.46067391949924635</v>
+        <v>0.13492966505375986</v>
       </c>
       <c r="P166">
         <f t="shared" si="20"/>
@@ -9006,19 +9006,19 @@
       </c>
       <c r="I167">
         <f t="shared" si="22"/>
-        <v>3260875</v>
+        <v>7173925</v>
       </c>
       <c r="J167">
         <f t="shared" si="23"/>
-        <v>5989236</v>
+        <v>6261474</v>
       </c>
       <c r="K167">
         <f t="shared" si="18"/>
-        <v>-2728361</v>
+        <v>912451</v>
       </c>
       <c r="L167" s="1">
         <f t="shared" si="19"/>
-        <v>0.45554407941179809</v>
+        <v>0.1457246328899553</v>
       </c>
       <c r="P167">
         <f t="shared" si="20"/>
@@ -9050,19 +9050,19 @@
       </c>
       <c r="I168">
         <f t="shared" si="22"/>
-        <v>3257115</v>
+        <v>7165653</v>
       </c>
       <c r="J168">
         <f t="shared" si="23"/>
-        <v>6067248</v>
+        <v>6343032</v>
       </c>
       <c r="K168">
         <f t="shared" si="18"/>
-        <v>-2810133</v>
+        <v>822621</v>
       </c>
       <c r="L168" s="1">
         <f t="shared" si="19"/>
-        <v>0.4631643539212506</v>
+        <v>0.12968892479180302</v>
       </c>
       <c r="P168">
         <f t="shared" si="20"/>
@@ -9094,19 +9094,19 @@
       </c>
       <c r="I169">
         <f t="shared" si="22"/>
-        <v>3261445</v>
+        <v>7175179</v>
       </c>
       <c r="J169">
         <f t="shared" si="23"/>
-        <v>6047844</v>
+        <v>6322746</v>
       </c>
       <c r="K169">
         <f t="shared" si="18"/>
-        <v>-2786399</v>
+        <v>852433</v>
       </c>
       <c r="L169" s="1">
         <f t="shared" si="19"/>
-        <v>0.46072600417603365</v>
+        <v>0.13482006077739009</v>
       </c>
       <c r="P169">
         <f t="shared" si="20"/>
@@ -9138,19 +9138,19 @@
       </c>
       <c r="I170">
         <f t="shared" si="22"/>
-        <v>3261260</v>
+        <v>7174772</v>
       </c>
       <c r="J170">
         <f t="shared" si="23"/>
-        <v>5990952</v>
+        <v>6263268</v>
       </c>
       <c r="K170">
         <f t="shared" si="18"/>
-        <v>-2729692</v>
+        <v>911504</v>
       </c>
       <c r="L170" s="1">
         <f t="shared" si="19"/>
-        <v>0.45563576540089124</v>
+        <v>0.14553169367812457</v>
       </c>
       <c r="P170">
         <f t="shared" si="20"/>
@@ -9182,19 +9182,19 @@
       </c>
       <c r="I171">
         <f t="shared" si="22"/>
-        <v>3253140</v>
+        <v>7156908</v>
       </c>
       <c r="J171">
         <f t="shared" si="23"/>
-        <v>6081240</v>
+        <v>6357660</v>
       </c>
       <c r="K171">
         <f t="shared" si="18"/>
-        <v>-2828100</v>
+        <v>799248</v>
       </c>
       <c r="L171" s="1">
         <f t="shared" si="19"/>
-        <v>0.46505317994356415</v>
+        <v>0.1257141778578911</v>
       </c>
       <c r="P171">
         <f t="shared" si="20"/>
@@ -9226,19 +9226,19 @@
       </c>
       <c r="I172">
         <f t="shared" si="22"/>
-        <v>3260930</v>
+        <v>7174046</v>
       </c>
       <c r="J172">
         <f t="shared" si="23"/>
-        <v>6051276</v>
+        <v>6326334</v>
       </c>
       <c r="K172">
         <f t="shared" si="18"/>
-        <v>-2790346</v>
+        <v>847712</v>
       </c>
       <c r="L172" s="1">
         <f t="shared" si="19"/>
-        <v>0.4611169611169611</v>
+        <v>0.13399735138865573</v>
       </c>
       <c r="P172">
         <f t="shared" si="20"/>
@@ -9270,19 +9270,19 @@
       </c>
       <c r="I173">
         <f t="shared" si="22"/>
-        <v>3260700</v>
+        <v>7173540</v>
       </c>
       <c r="J173">
         <f t="shared" si="23"/>
-        <v>5993592</v>
+        <v>6266028</v>
       </c>
       <c r="K173">
         <f t="shared" si="18"/>
-        <v>-2732892</v>
+        <v>907512</v>
       </c>
       <c r="L173" s="1">
         <f t="shared" si="19"/>
-        <v>0.45596897486515597</v>
+        <v>0.14483050506636741</v>
       </c>
       <c r="P173">
         <f t="shared" si="20"/>
@@ -9314,19 +9314,19 @@
       </c>
       <c r="I174">
         <f t="shared" si="22"/>
-        <v>3260530</v>
+        <v>7173166</v>
       </c>
       <c r="J174">
         <f t="shared" si="23"/>
-        <v>6039396</v>
+        <v>6313914</v>
       </c>
       <c r="K174">
         <f t="shared" si="18"/>
-        <v>-2778866</v>
+        <v>859252</v>
       </c>
       <c r="L174" s="1">
         <f t="shared" si="19"/>
-        <v>0.46012316463434422</v>
+        <v>0.13608864485642344</v>
       </c>
       <c r="P174">
         <f t="shared" si="20"/>
@@ -9358,19 +9358,19 @@
       </c>
       <c r="I175">
         <f t="shared" si="22"/>
-        <v>3260850</v>
+        <v>7173870</v>
       </c>
       <c r="J175">
         <f t="shared" si="23"/>
-        <v>6043620</v>
+        <v>6318330</v>
       </c>
       <c r="K175">
         <f t="shared" si="18"/>
-        <v>-2782770</v>
+        <v>855540</v>
       </c>
       <c r="L175" s="1">
         <f t="shared" si="19"/>
-        <v>0.46044754633812185</v>
+        <v>0.13540603292325662</v>
       </c>
       <c r="P175">
         <f t="shared" si="20"/>
@@ -9402,19 +9402,19 @@
       </c>
       <c r="I176">
         <f t="shared" si="22"/>
-        <v>3261030</v>
+        <v>7174266</v>
       </c>
       <c r="J176">
         <f t="shared" si="23"/>
-        <v>5989896</v>
+        <v>6262164</v>
       </c>
       <c r="K176">
         <f t="shared" si="18"/>
-        <v>-2728866</v>
+        <v>912102</v>
       </c>
       <c r="L176" s="1">
         <f t="shared" si="19"/>
-        <v>0.455578193678154</v>
+        <v>0.14565284460771069</v>
       </c>
       <c r="P176">
         <f t="shared" si="20"/>
@@ -9446,19 +9446,19 @@
       </c>
       <c r="I177">
         <f t="shared" si="22"/>
-        <v>3255205</v>
+        <v>7161451</v>
       </c>
       <c r="J177">
         <f t="shared" si="23"/>
-        <v>6071208</v>
+        <v>6347172</v>
       </c>
       <c r="K177">
         <f t="shared" si="18"/>
-        <v>-2816003</v>
+        <v>814279</v>
       </c>
       <c r="L177" s="1">
         <f t="shared" si="19"/>
-        <v>0.46382910946223554</v>
+        <v>0.12829004791425219</v>
       </c>
       <c r="P177">
         <f t="shared" si="20"/>
@@ -9490,19 +9490,19 @@
       </c>
       <c r="I178">
         <f t="shared" si="22"/>
-        <v>3255660</v>
+        <v>7162452</v>
       </c>
       <c r="J178">
         <f t="shared" si="23"/>
-        <v>6079260</v>
+        <v>6355590</v>
       </c>
       <c r="K178">
         <f t="shared" si="18"/>
-        <v>-2823600</v>
+        <v>806862</v>
       </c>
       <c r="L178" s="1">
         <f t="shared" si="19"/>
-        <v>0.46446442494645729</v>
+        <v>0.12695312315615073</v>
       </c>
       <c r="P178">
         <f t="shared" si="20"/>
@@ -9534,19 +9534,19 @@
       </c>
       <c r="I179">
         <f t="shared" si="22"/>
-        <v>3261270</v>
+        <v>7174794</v>
       </c>
       <c r="J179">
         <f t="shared" si="23"/>
-        <v>6049560</v>
+        <v>6324540</v>
       </c>
       <c r="K179">
         <f t="shared" si="18"/>
-        <v>-2788290</v>
+        <v>850254</v>
       </c>
       <c r="L179" s="1">
         <f t="shared" si="19"/>
-        <v>0.46090790073988852</v>
+        <v>0.13443728713866937</v>
       </c>
       <c r="P179">
         <f t="shared" si="20"/>
@@ -9578,19 +9578,19 @@
       </c>
       <c r="I180">
         <f t="shared" si="22"/>
-        <v>3260745</v>
+        <v>7173639</v>
       </c>
       <c r="J180">
         <f t="shared" si="23"/>
-        <v>5977356</v>
+        <v>6249054</v>
       </c>
       <c r="K180">
         <f t="shared" si="18"/>
-        <v>-2716611</v>
+        <v>924585</v>
       </c>
       <c r="L180" s="1">
         <f t="shared" si="19"/>
-        <v>0.45448372156518702</v>
+        <v>0.14795599461934558</v>
       </c>
       <c r="P180">
         <f t="shared" si="20"/>
@@ -9622,19 +9622,19 @@
       </c>
       <c r="I181">
         <f t="shared" si="22"/>
-        <v>3635615</v>
+        <v>7998353</v>
       </c>
       <c r="J181">
         <f t="shared" si="23"/>
-        <v>12237720</v>
+        <v>12793980</v>
       </c>
       <c r="K181">
         <f t="shared" si="18"/>
-        <v>-8602105</v>
+        <v>-4795627</v>
       </c>
       <c r="L181" s="1">
         <f t="shared" si="19"/>
-        <v>0.70291729178310991</v>
+        <v>0.37483464879576178</v>
       </c>
       <c r="P181">
         <f t="shared" si="20"/>
@@ -9666,19 +9666,19 @@
       </c>
       <c r="I182">
         <f t="shared" si="22"/>
-        <v>3750020</v>
+        <v>8250044</v>
       </c>
       <c r="J182">
         <f t="shared" si="23"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K182">
         <f t="shared" si="18"/>
-        <v>-10392856</v>
+        <v>-6535690</v>
       </c>
       <c r="L182" s="1">
         <f t="shared" si="19"/>
-        <v>0.73484742424383842</v>
+        <v>0.44202675362616423</v>
       </c>
       <c r="P182">
         <f t="shared" si="20"/>
@@ -9710,19 +9710,19 @@
       </c>
       <c r="I183">
         <f t="shared" si="22"/>
-        <v>3749995</v>
+        <v>8249989</v>
       </c>
       <c r="J183">
         <f t="shared" si="23"/>
-        <v>14142876</v>
+        <v>14785734</v>
       </c>
       <c r="K183">
         <f t="shared" si="18"/>
-        <v>-10392881</v>
+        <v>-6535745</v>
       </c>
       <c r="L183" s="1">
         <f t="shared" si="19"/>
-        <v>0.73484919191824916</v>
+        <v>0.44203047342796781</v>
       </c>
       <c r="P183">
         <f t="shared" si="20"/>
@@ -9754,19 +9754,19 @@
       </c>
       <c r="I184">
         <f t="shared" si="22"/>
-        <v>3749990</v>
+        <v>8249978</v>
       </c>
       <c r="J184">
         <f t="shared" si="23"/>
-        <v>14142744</v>
+        <v>14785596</v>
       </c>
       <c r="K184">
         <f t="shared" si="18"/>
-        <v>-10392754</v>
+        <v>-6535618</v>
       </c>
       <c r="L184" s="1">
         <f t="shared" si="19"/>
-        <v>0.7348470706957575</v>
+        <v>0.44202600963802879</v>
       </c>
       <c r="P184">
         <f t="shared" si="20"/>
